--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uinedu-my.sharepoint.com/personal/a2982_myoffice_site/Documents/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="442" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{25F5E0FF-FC92-534A-9679-B5326262CCEE}"/>
+  <xr:revisionPtr revIDLastSave="921" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D33E02AF-8BEE-5B45-B706-ECE47BE5FD6B}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1560" windowWidth="28240" windowHeight="17440" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="5820" yWindow="460" windowWidth="30860" windowHeight="19000" activeTab="3" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
     <sheet name="要件定义" sheetId="1" r:id="rId2"/>
     <sheet name="概要设计" sheetId="2" r:id="rId3"/>
-    <sheet name="UI" sheetId="3" r:id="rId4"/>
+    <sheet name="画面改造" sheetId="7" r:id="rId4"/>
+    <sheet name="UI" sheetId="3" r:id="rId5"/>
+    <sheet name="参照画面的跳转式样" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="154">
   <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -436,7 +439,6 @@
         <sz val="22"/>
         <color rgb="FF002060"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>为技术者自动匹配案件</t>
     </r>
@@ -462,7 +464,6 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>技术者的技术信息登陆</t>
     </r>
@@ -488,7 +489,6 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>案件的技术要求信息登陆</t>
     </r>
@@ -529,12 +529,638 @@
     <t>备注，以上画面和其他画面一样，就是项目更多了一点。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入社年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F7F7F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>社員CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F7F7F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>label</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F7F7F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7F007F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"社員CD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7F007F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"社員CD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7F007F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"text"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7F007F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3F7F7F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7F007F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"button"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7F007F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"search_btn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7F007F"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"参照"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF008080"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>$(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>"#社員参照_btn"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>).click(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7F0055"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>function</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>() {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>executeAction(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'http://localhost:8080/JavaMiddleClassCompleteSource/社員getTestData'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>);</t>
+    </r>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>初期表示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检索处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行比对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回指定的JSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染指定的JSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>想把指定画面显示出来，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就要先写它的JSP（HTML）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后再写它的Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何写JSP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先找一个画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制，重命名，改成自己的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后在此基础之上该。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再写Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是改一下CLASS名字即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样找一个类似的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先跑起来最重要，只需要改一下名字即可。建立信心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改造前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改造后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件情报</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计终了日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际终了日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>〜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件开始日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案件追加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上节课我们学习了，什么是HTML、JQUERY、AJAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这节课开始，我们通过实际案件的操作，来学习怎么在现场独立完成任务；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先通过改造一个画面，完成对画面结构的认知。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责页面的控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责业务处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责数据的读写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责页面/数据的展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果画面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -618,16 +1244,82 @@
       <sz val="22"/>
       <color rgb="FF002060"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF008080"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F7F7F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7F007F"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7F0055"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +1341,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,7 +1670,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1150,6 +1848,48 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1173,6 +1913,379 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D72A6F-A730-0145-84CE-8CDBB5DB3C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="1447800"/>
+          <a:ext cx="4635500" cy="5130800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE6323EC-D5FF-604C-B8D5-44F0C11B78A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1092200" y="10883900"/>
+          <a:ext cx="1346200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF44BB03-BCA2-6247-9BFC-D27FF9E2A660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2743200" y="10871200"/>
+          <a:ext cx="1346200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B637BE1-4A6A-2740-BA33-44DF5EB5AC36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8953500" y="1435100"/>
+          <a:ext cx="4991100" cy="5003800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="圆角矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3507A4E-DE17-124A-8B9B-399FD2CB048C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="10820400"/>
+          <a:ext cx="1346200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>戻る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB90520E-21DE-104A-BC96-13B89C8E13F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="11379200"/>
+          <a:ext cx="1346200" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="threePt" dir="t"/>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="165100" prst="coolSlant"/>
+        </a:sp3d>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2299,6 +3412,4893 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="圆角矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE7B79B-0450-F048-98F7-51022638FA94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4205111" y="14054667"/>
+          <a:ext cx="1284111" cy="493889"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>578556</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>70556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>197556</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="圆角矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5108CC5-C073-614A-B54F-9E191013263D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="818445" y="15931445"/>
+          <a:ext cx="1284111" cy="493889"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620890</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>56445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>239890</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="圆角矩形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB1CDFE-5B11-E248-BA93-6EC8F058B2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7521223" y="16340667"/>
+          <a:ext cx="1284111" cy="493889"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="60325">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>268110</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>14110</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE089A4-F9EB-B843-8120-4B3517EE8B4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17991666" y="20785667"/>
+          <a:ext cx="4741333" cy="5531555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>选择按钮</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>只有在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>参照模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>的时候才会显示，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>而且此时</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>允许出现</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>删除</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>允许出现</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>更新</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>允许出现</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>追加</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>一旦被选择，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>选择行信息被传回</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>调取画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>参照画面先（社员检索画面）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>将关闭</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>然后参照元画面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>将自动更新表示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>296334</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>42333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>818445</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>184057</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="矩形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4534C02-3E03-EE45-AF23-BAD71B5916F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17929088" y="27430159"/>
+          <a:ext cx="4663415" cy="3657231"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>选择的时候</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>要往参照元页面返回，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>所以要记住</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>参照元页面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="0"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>同时将信息设置到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000"/>
+            <a:t>model</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>里面。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>还是正常页面跳转。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>要求，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000"/>
+            <a:t>元画面的入力信息要保持不变。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>818444</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>105834</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直线箭头连接符 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C206A9A0-1822-2A4A-B1AC-7C8B78BB2E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5489222" y="21025556"/>
+          <a:ext cx="5559778" cy="1121834"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>550334</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>98778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>705555</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直线箭头连接符 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D1A76BC-3238-2E46-B2C3-1F62517D53A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5785556" y="22563667"/>
+          <a:ext cx="10145888" cy="1947333"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>731864</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>215254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>322881</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>150678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直线连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1721C91-2311-8B4D-913A-ED3F17F3FEB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16510000" y="20922712"/>
+          <a:ext cx="1226949" cy="3530169"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>748974</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>65128</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="文本框 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459788E0-51E6-4A47-94C6-64EDFD368BE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19701282" y="12113846"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>416386</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>431583</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>162821</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>195385</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="矩形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDE83A3-079A-3546-A871-16B7374B9AA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8079805" y="21869617"/>
+          <a:ext cx="1396349" cy="415084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>画面迁移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>514079</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>260513</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>162821</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="矩形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3DAB6D1-41E9-F140-9F63-5E16CF323F28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9827412" y="23986284"/>
+          <a:ext cx="1396349" cy="415084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>画面迁移</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>503115</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>155005</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3665F87-FD8A-3C4E-9D06-7EC3C795CA3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="825500" y="406400"/>
+          <a:ext cx="4630615" cy="5438205"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>技术者页面画</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>画出来（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>实装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>按钮，要求能完成跳转。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>社员检索画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>页面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>模式的追加</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>按钮的追加（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>按钮的实装</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>197238</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297927</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>188134</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC16F8E6-4183-C640-8281-4019EF12E681}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904022" y="18018206"/>
+          <a:ext cx="5129389" cy="1834444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>按钮的实装</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t> 选择后，将信息塞入</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>技术者技术信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t> 页面转送</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>84667</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>18346</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>297927</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>29726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49E0509-EF21-FC49-834C-12AE7FE850C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904022" y="20092540"/>
+          <a:ext cx="5129389" cy="2469444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>技术者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>画面的渲染</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>同时页面需要有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+            <a:t>cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>信息的刷新。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>注，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+            <a:t>cookie</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>信息只保留检索条件信息，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>         不包括检索结果信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>42333</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>79342</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>255593</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>105745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBE4931-D974-284A-B119-E5EDC2893EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="861688" y="16056761"/>
+          <a:ext cx="5129389" cy="1665113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>按钮的追加（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800" baseline="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>选择</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>按钮只有在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>模式才显示</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>39078</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>122391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>252338</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA05C33-5864-4E4B-A246-6C665E83046A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="858433" y="10569165"/>
+          <a:ext cx="5129389" cy="5245536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>社员检索画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>页面</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>完成</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>模式的追加</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>：通常</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>：参照</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>这个信息所有画面都将需要</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    需要用到父类</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>只有被告知的情况下才知道自己是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>：参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    如何告知呢</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    作为一个画面隐藏项进行提交。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    还有就是参照元画面的画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>    （否则，如何回退啊？！）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>213260</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>73740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28ADB412-E3FB-F648-80DA-821054F9A11C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819355" y="7644848"/>
+          <a:ext cx="5129389" cy="2670827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>实装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>按钮，要求能完成跳转。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>方案、只要用固定的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>即可。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>             同时需要添附</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11652</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>224912</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>71359</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FEF8AAA-A50D-C547-944E-70461378312F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="831007" y="6350000"/>
+          <a:ext cx="5129389" cy="1095553"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>任务</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>把</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>技术者页面画</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>画出来（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>html</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>379098</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>65816</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>608217</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>73740</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B0064D-7884-3649-93AF-EF8F83DDF5C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6114582" y="7644848"/>
+          <a:ext cx="5145248" cy="2670827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>思考</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>跳转可以写一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>CLASS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>专门对应。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>通过画面</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>，可以映射指定的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DTO</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>MODEL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>跳转信息也要给画面传过去，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>否则</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>Server</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>这边就要忘记，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>712900</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>136559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>550153</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>126818</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ED812E0-8906-414A-8E4B-FDA0B506CCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2351610" y="23488172"/>
+          <a:ext cx="3114672" cy="1424130"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>父类</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>195235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>691563</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>50564</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1783AB81-7A71-E44F-B711-B78F40E61812}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819355" y="25800074"/>
+          <a:ext cx="3149627" cy="1494038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>社员</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DTO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>姓名</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>性别</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>出生年月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>278516</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>171932</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>150722</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>27261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00B726E1-92C1-8745-9107-F8CF308F4799}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4375290" y="25776771"/>
+          <a:ext cx="3149626" cy="1494038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>技术者</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>DTO</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>模式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照元</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>                  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参照先</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>ID】</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>600489</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>151167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347846</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>143525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右箭头 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1EE1C9F-D330-8D45-B3D6-8970AD5DDA65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18834730">
+          <a:off x="2936053" y="25059152"/>
+          <a:ext cx="811713" cy="566711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26989"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>165108</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>139516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>747677</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>141583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="右箭头 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31FF79B-90A6-7943-9E59-9CA4965725AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="13508259">
+          <a:off x="4142456" y="25044426"/>
+          <a:ext cx="821422" cy="582569"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 26989"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>99181</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>161472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>226181</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>15725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{881DE375-6A94-C44A-B385-4D0C55CB0B6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2593824" y="4878615"/>
+          <a:ext cx="1790095" cy="640443"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32607DB-4E37-8047-BDF0-3FE3CA43E01E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="2374900"/>
+          <a:ext cx="2209800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A452DAD-C498-2748-8100-0D55FCB27F79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6578600" y="2374900"/>
+          <a:ext cx="2209800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>Service</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99888209-6E95-F644-A4A6-FCCA350B6B37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9537700" y="2374900"/>
+          <a:ext cx="2209800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>162077</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3EE1781-253A-054C-9DE2-C49ABB0B1F6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1739295" y="2929467"/>
+          <a:ext cx="85877" cy="9922328"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4B25367-10D1-F14B-8004-4F8880D9A8A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4737100" y="3009900"/>
+          <a:ext cx="0" cy="9398000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B6465A-FAC6-B946-B40A-E73B9B83C1E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7696200" y="3022600"/>
+          <a:ext cx="0" cy="9398000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54AC3DB2-6B65-534F-9B52-B5EB1E2164FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10718800" y="3022600"/>
+          <a:ext cx="0" cy="9398000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="圆角矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8464F2F-A838-B84F-9F8D-6B706E5FA0FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2616200" y="5715000"/>
+          <a:ext cx="1727200" cy="1092200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Bean/DTO</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92A52341-52EB-8942-BA71-7C272D250A5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="901700" y="3187700"/>
+          <a:ext cx="1892300" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45FADAF-DE0E-0C4D-9DC4-2C0AB2E01173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="3530600"/>
+          <a:ext cx="1968500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线箭头连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F00FAB47-3E6B-9D4D-9613-9DE42ADC3BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1816100" y="6388100"/>
+          <a:ext cx="2895600" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AB065F-7007-7847-B7BD-B1BD6B162C99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4762500" y="3365500"/>
+          <a:ext cx="393700" cy="3213100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直线箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87AF0251-A14C-5D46-AE6A-47F8A8688CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1892300" y="8343900"/>
+          <a:ext cx="2679700" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D07FED-C044-A441-BD62-B4FAD101E9AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="8293100"/>
+          <a:ext cx="393700" cy="4013200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B923FB3-0FD9-7745-A2CA-349ADE7EFB85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5105400" y="8661400"/>
+          <a:ext cx="2451100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67962605-12CE-A540-9697-2497D317456A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7721600" y="8483600"/>
+          <a:ext cx="393700" cy="3213100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线箭头连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80197F35-3C8D-7B48-9E80-70B4EEB949BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8178800" y="8966200"/>
+          <a:ext cx="2451100" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDD299A-0AB6-FB4D-9351-2872DE48450E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782300" y="8750300"/>
+          <a:ext cx="393700" cy="1282700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直线箭头连接符 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3055A2-9045-F245-A062-C43C8AEA9346}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11226800" y="9245600"/>
+          <a:ext cx="1778000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直线箭头连接符 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81CFCC83-1B92-244C-A0CC-F569786579D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8178800" y="9842500"/>
+          <a:ext cx="2413000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直线箭头连接符 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F05641F4-6106-6A46-AAF9-1FA5ABB10983}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1714500" y="12166600"/>
+          <a:ext cx="3048000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="直线箭头连接符 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E819CFF9-9420-634C-B905-60AEDDA86ABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5245100" y="11112500"/>
+          <a:ext cx="2387600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="圆角矩形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2669CF3-8E19-B24B-B642-A377F97BD755}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="711200" y="2362200"/>
+          <a:ext cx="2209800" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>IE</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A88796-2DA1-EC49-A821-80A0796AB5F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6959600" y="13411200"/>
+          <a:ext cx="3340100" cy="1003300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>参考老师</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800"/>
+            <a:t>git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>的代码</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800"/>
+            <a:t>自己在本地新建工程</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>710596</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>15119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717852</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>143329</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="折角形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E5FF1C3-5DC5-0942-B8C2-EBEDE2A96BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13183810" y="8073571"/>
+          <a:ext cx="1670352" cy="1700591"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="3200"/>
+            <a:t>文件</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30844</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>133653</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC7E81E-3615-CA48-B65D-1C6F06B4D7E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="862392" y="7532914"/>
+          <a:ext cx="1904395" cy="659191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600"/>
+            <a:t>URL</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>94342</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>55637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>170542</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>131837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="圆角矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16D22052-CCB4-A44F-A593-21CEB611875A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2588985" y="10865756"/>
+          <a:ext cx="1739295" cy="1058938"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Bean/DTO</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>84062</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>211062</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="圆角矩形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC1FB606-80F5-3543-A9F5-7BE2EDB3DE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2578705" y="10245877"/>
+          <a:ext cx="1790095" cy="640443"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3200"/>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2603,8 +8603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A95D45-31E7-8E46-94E3-31F7FADEDF63}">
   <dimension ref="B5:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2683,7 +8683,7 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2734,7 +8734,7 @@
   <dimension ref="A3:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3001,9 +9001,10 @@
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="67" t="s">
         <v>56</v>
       </c>
+      <c r="D17" s="67"/>
       <c r="F17" s="47" t="s">
         <v>42</v>
       </c>
@@ -3023,10 +9024,10 @@
       <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="67" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="47"/>
@@ -3044,10 +9045,10 @@
       <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="67" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="47"/>
@@ -3065,10 +9066,10 @@
       <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="67" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="47"/>
@@ -3086,10 +9087,10 @@
       <c r="B21" t="s">
         <v>33</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="67" t="s">
         <v>17</v>
       </c>
       <c r="F21" s="47" t="s">
@@ -3453,11 +9454,420 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCBE3B-F85F-DE40-982F-3CACB8FEB57B}">
+  <dimension ref="A3:Q58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="3" spans="1:2" ht="23">
+      <c r="B3" s="68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23">
+      <c r="B4" s="68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26">
+      <c r="B7" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="17" thickBot="1">
+      <c r="A38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="B39" s="10"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="11"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" spans="1:17" ht="28">
+      <c r="B40" s="70" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="32"/>
+      <c r="L40" s="70" t="s">
+        <v>144</v>
+      </c>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5"/>
+      <c r="Q40" s="32"/>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="B41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="32"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="5"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5"/>
+      <c r="P41" s="5"/>
+      <c r="Q41" s="32"/>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="32"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="5"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5"/>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="32"/>
+    </row>
+    <row r="43" spans="1:17" ht="23">
+      <c r="B43" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="32"/>
+      <c r="L43" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="M43" s="5"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="32"/>
+    </row>
+    <row r="44" spans="1:17" ht="23">
+      <c r="B44" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="32"/>
+      <c r="L44" s="71" t="s">
+        <v>134</v>
+      </c>
+      <c r="M44" s="5"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="32"/>
+    </row>
+    <row r="45" spans="1:17" ht="23">
+      <c r="B45" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="32"/>
+      <c r="L45" s="71" t="s">
+        <v>135</v>
+      </c>
+      <c r="M45" s="5"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="32"/>
+    </row>
+    <row r="46" spans="1:17" ht="23">
+      <c r="B46" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="32"/>
+      <c r="L46" s="71" t="s">
+        <v>136</v>
+      </c>
+      <c r="M46" s="5"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="32"/>
+    </row>
+    <row r="47" spans="1:17" ht="23">
+      <c r="B47" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="32"/>
+      <c r="L47" s="71" t="s">
+        <v>137</v>
+      </c>
+      <c r="M47" s="5"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="32"/>
+    </row>
+    <row r="48" spans="1:17" ht="23">
+      <c r="B48" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="H48" s="21"/>
+      <c r="I48" s="32"/>
+      <c r="L48" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" s="5"/>
+      <c r="N48" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="O48" s="21"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="32"/>
+    </row>
+    <row r="49" spans="2:17" ht="23">
+      <c r="B49" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="21"/>
+      <c r="F49" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="H49" s="21"/>
+      <c r="I49" s="32"/>
+      <c r="L49" s="71" t="s">
+        <v>138</v>
+      </c>
+      <c r="M49" s="5"/>
+      <c r="N49" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="O49" s="21"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="32"/>
+    </row>
+    <row r="50" spans="2:17" ht="23">
+      <c r="B50" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" s="21"/>
+      <c r="I50" s="32"/>
+      <c r="L50" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="M50" s="5"/>
+      <c r="N50" s="72" t="s">
+        <v>143</v>
+      </c>
+      <c r="O50" s="21"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="32"/>
+    </row>
+    <row r="51" spans="2:17" ht="23">
+      <c r="B51" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="72"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="32"/>
+      <c r="L51" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="M51" s="5"/>
+      <c r="N51" s="72"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="32"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="8"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="32"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="32"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="8"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="32"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+      <c r="P53" s="5"/>
+      <c r="Q53" s="32"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="8"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="32"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="32"/>
+    </row>
+    <row r="55" spans="2:17" ht="17" thickBot="1">
+      <c r="B55" s="7"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
+      <c r="I55" s="4"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="32"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="L56" s="8"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="32"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="L57" s="8"/>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="32"/>
+    </row>
+    <row r="58" spans="2:17" ht="17" thickBot="1">
+      <c r="L58" s="7"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
-  <dimension ref="B2:U95"/>
+  <dimension ref="B2:V132"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView topLeftCell="A47" zoomScale="56" workbookViewId="0">
+      <selection activeCell="V97" sqref="V97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5001,6 +11411,1045 @@
       <c r="L95" s="9"/>
       <c r="M95" s="18"/>
     </row>
+    <row r="99" spans="2:22" ht="35">
+      <c r="B99" s="12"/>
+      <c r="C99" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="13"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="14"/>
+      <c r="O99" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P99" s="13"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="13"/>
+      <c r="S99" s="13"/>
+      <c r="T99" s="13"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="14"/>
+    </row>
+    <row r="100" spans="2:22">
+      <c r="B100" s="15"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="16"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+      <c r="U100" s="5"/>
+      <c r="V100" s="16"/>
+    </row>
+    <row r="101" spans="2:22">
+      <c r="B101" s="15"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="16"/>
+      <c r="O101" s="15"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="16"/>
+    </row>
+    <row r="102" spans="2:22" ht="17" thickBot="1">
+      <c r="B102" s="15"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="16"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+      <c r="U102" s="5"/>
+      <c r="V102" s="16"/>
+    </row>
+    <row r="103" spans="2:22" ht="17" thickBot="1">
+      <c r="B103" s="15"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="16"/>
+      <c r="O103" s="15"/>
+      <c r="P103" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="1"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="16"/>
+    </row>
+    <row r="104" spans="2:22" ht="17" thickBot="1">
+      <c r="B104" s="15"/>
+      <c r="C104" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D104" s="5"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="16"/>
+      <c r="O104" s="15"/>
+      <c r="P104" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="1"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="5"/>
+      <c r="U104" s="5"/>
+      <c r="V104" s="16"/>
+    </row>
+    <row r="105" spans="2:22" ht="17" thickBot="1">
+      <c r="B105" s="15"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="16"/>
+      <c r="O105" s="15"/>
+      <c r="P105" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="1"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="16"/>
+    </row>
+    <row r="106" spans="2:22" ht="17" thickBot="1">
+      <c r="B106" s="15"/>
+      <c r="C106" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="5"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="16"/>
+      <c r="O106" s="15"/>
+      <c r="P106" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="1"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="5"/>
+      <c r="U106" s="5"/>
+      <c r="V106" s="16"/>
+    </row>
+    <row r="107" spans="2:22" ht="17" thickBot="1">
+      <c r="B107" s="15"/>
+      <c r="C107" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107" s="5"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="16"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+      <c r="U107" s="5"/>
+      <c r="V107" s="16"/>
+    </row>
+    <row r="108" spans="2:22" ht="17" thickBot="1">
+      <c r="B108" s="15"/>
+      <c r="C108" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" s="5"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+      <c r="M108" s="16"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="5"/>
+      <c r="Q108" s="5"/>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5"/>
+      <c r="T108" s="5"/>
+      <c r="U108" s="5"/>
+      <c r="V108" s="16"/>
+    </row>
+    <row r="109" spans="2:22" ht="17" thickBot="1">
+      <c r="B109" s="15"/>
+      <c r="C109" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="16"/>
+      <c r="O109" s="15"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="16"/>
+    </row>
+    <row r="110" spans="2:22">
+      <c r="B110" s="15"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="16"/>
+      <c r="O110" s="15"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+      <c r="R110" s="5"/>
+      <c r="S110" s="5"/>
+      <c r="T110" s="5"/>
+      <c r="U110" s="5"/>
+      <c r="V110" s="16"/>
+    </row>
+    <row r="111" spans="2:22">
+      <c r="B111" s="15"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="16"/>
+      <c r="O111" s="15"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="16"/>
+    </row>
+    <row r="112" spans="2:22" ht="17" thickBot="1">
+      <c r="B112" s="15"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="16"/>
+      <c r="O112" s="15"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="T112" s="5"/>
+      <c r="U112" s="5"/>
+      <c r="V112" s="16"/>
+    </row>
+    <row r="113" spans="2:22" ht="17" thickBot="1">
+      <c r="B113" s="15"/>
+      <c r="C113" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="16"/>
+      <c r="O113" s="15"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="16"/>
+    </row>
+    <row r="114" spans="2:22" ht="17" thickBot="1">
+      <c r="B114" s="15"/>
+      <c r="C114" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D114" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E114" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F114" s="25"/>
+      <c r="G114" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" s="36"/>
+      <c r="I114" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J114" s="24"/>
+      <c r="K114" s="5"/>
+      <c r="L114" s="5"/>
+      <c r="M114" s="16"/>
+      <c r="O114" s="15"/>
+      <c r="P114" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q114" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="R114" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="S114" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="T114" s="62"/>
+      <c r="U114" s="5"/>
+      <c r="V114" s="16"/>
+    </row>
+    <row r="115" spans="2:22" ht="17" thickBot="1">
+      <c r="B115" s="15"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="22"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="19"/>
+      <c r="H115" s="21"/>
+      <c r="I115" s="19"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L115" s="5"/>
+      <c r="M115" s="16"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="20"/>
+      <c r="R115" s="20"/>
+      <c r="S115" s="20"/>
+      <c r="T115" s="21"/>
+      <c r="U115" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V115" s="16"/>
+    </row>
+    <row r="116" spans="2:22">
+      <c r="B116" s="15"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="5"/>
+      <c r="L116" s="5"/>
+      <c r="M116" s="16"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="20"/>
+      <c r="R116" s="20"/>
+      <c r="S116" s="20"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V116" s="16"/>
+    </row>
+    <row r="117" spans="2:22">
+      <c r="B117" s="15"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="5"/>
+      <c r="L117" s="5"/>
+      <c r="M117" s="16"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="19"/>
+      <c r="Q117" s="20"/>
+      <c r="R117" s="20"/>
+      <c r="S117" s="20"/>
+      <c r="T117" s="21"/>
+      <c r="U117" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V117" s="16"/>
+    </row>
+    <row r="118" spans="2:22">
+      <c r="B118" s="15"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="5"/>
+      <c r="L118" s="5"/>
+      <c r="M118" s="16"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="20"/>
+      <c r="R118" s="20"/>
+      <c r="S118" s="20"/>
+      <c r="T118" s="21"/>
+      <c r="U118" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V118" s="16"/>
+    </row>
+    <row r="119" spans="2:22">
+      <c r="B119" s="15"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="5"/>
+      <c r="L119" s="5"/>
+      <c r="M119" s="16"/>
+      <c r="O119" s="15"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="20"/>
+      <c r="R119" s="20"/>
+      <c r="S119" s="20"/>
+      <c r="T119" s="21"/>
+      <c r="U119" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V119" s="16"/>
+    </row>
+    <row r="120" spans="2:22" ht="17" thickBot="1">
+      <c r="B120" s="15"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="5"/>
+      <c r="L120" s="5"/>
+      <c r="M120" s="16"/>
+      <c r="O120" s="15"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="20"/>
+      <c r="R120" s="20"/>
+      <c r="S120" s="20"/>
+      <c r="T120" s="21"/>
+      <c r="U120" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V120" s="16"/>
+    </row>
+    <row r="121" spans="2:22" ht="17" thickBot="1">
+      <c r="B121" s="15"/>
+      <c r="C121" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="16"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="19"/>
+      <c r="Q121" s="20"/>
+      <c r="R121" s="20"/>
+      <c r="S121" s="20"/>
+      <c r="T121" s="21"/>
+      <c r="U121" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V121" s="16"/>
+    </row>
+    <row r="122" spans="2:22" ht="17" thickBot="1">
+      <c r="B122" s="15"/>
+      <c r="C122" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D122" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E122" s="24"/>
+      <c r="F122" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G122" s="24"/>
+      <c r="H122" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J122" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="16"/>
+      <c r="O122" s="15"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="20"/>
+      <c r="R122" s="20"/>
+      <c r="S122" s="20"/>
+      <c r="T122" s="21"/>
+      <c r="U122" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V122" s="16"/>
+    </row>
+    <row r="123" spans="2:22" ht="17" thickBot="1">
+      <c r="B123" s="15"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="21"/>
+      <c r="H123" s="20"/>
+      <c r="I123" s="22"/>
+      <c r="J123" s="22"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M123" s="16"/>
+      <c r="O123" s="15"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="20"/>
+      <c r="R123" s="20"/>
+      <c r="S123" s="20"/>
+      <c r="T123" s="21"/>
+      <c r="U123" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V123" s="16"/>
+    </row>
+    <row r="124" spans="2:22">
+      <c r="B124" s="15"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="5"/>
+      <c r="M124" s="16"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="19"/>
+      <c r="Q124" s="20"/>
+      <c r="R124" s="20"/>
+      <c r="S124" s="20"/>
+      <c r="T124" s="21"/>
+      <c r="U124" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V124" s="16"/>
+    </row>
+    <row r="125" spans="2:22">
+      <c r="B125" s="15"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
+      <c r="L125" s="5"/>
+      <c r="M125" s="16"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="19"/>
+      <c r="Q125" s="20"/>
+      <c r="R125" s="20"/>
+      <c r="S125" s="20"/>
+      <c r="T125" s="21"/>
+      <c r="U125" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V125" s="16"/>
+    </row>
+    <row r="126" spans="2:22">
+      <c r="B126" s="15"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5"/>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="16"/>
+      <c r="O126" s="15"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="20"/>
+      <c r="R126" s="20"/>
+      <c r="S126" s="20"/>
+      <c r="T126" s="21"/>
+      <c r="U126" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V126" s="16"/>
+    </row>
+    <row r="127" spans="2:22" ht="17" thickBot="1">
+      <c r="B127" s="15"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5"/>
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="16"/>
+      <c r="O127" s="15"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="20"/>
+      <c r="R127" s="20"/>
+      <c r="S127" s="20"/>
+      <c r="T127" s="21"/>
+      <c r="U127" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V127" s="16"/>
+    </row>
+    <row r="128" spans="2:22" ht="17" thickBot="1">
+      <c r="B128" s="15"/>
+      <c r="C128" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D128" s="5"/>
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="16"/>
+      <c r="O128" s="15"/>
+      <c r="P128" s="19"/>
+      <c r="Q128" s="20"/>
+      <c r="R128" s="20"/>
+      <c r="S128" s="20"/>
+      <c r="T128" s="21"/>
+      <c r="U128" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V128" s="16"/>
+    </row>
+    <row r="129" spans="2:22" ht="17" thickBot="1">
+      <c r="B129" s="15"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="5"/>
+      <c r="L129" s="5"/>
+      <c r="M129" s="16"/>
+      <c r="O129" s="15"/>
+      <c r="P129" s="19"/>
+      <c r="Q129" s="20"/>
+      <c r="R129" s="20"/>
+      <c r="S129" s="20"/>
+      <c r="T129" s="21"/>
+      <c r="U129" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V129" s="16"/>
+    </row>
+    <row r="130" spans="2:22" ht="17" thickBot="1">
+      <c r="B130" s="15"/>
+      <c r="C130" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="5"/>
+      <c r="L130" s="5"/>
+      <c r="M130" s="16"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="20"/>
+      <c r="R130" s="20"/>
+      <c r="S130" s="20"/>
+      <c r="T130" s="21"/>
+      <c r="U130" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="V130" s="16"/>
+    </row>
+    <row r="131" spans="2:22">
+      <c r="B131" s="15"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="5"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="5"/>
+      <c r="L131" s="5"/>
+      <c r="M131" s="16"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="5"/>
+      <c r="Q131" s="5"/>
+      <c r="R131" s="5"/>
+      <c r="S131" s="5"/>
+      <c r="T131" s="5"/>
+      <c r="U131" s="5"/>
+      <c r="V131" s="16"/>
+    </row>
+    <row r="132" spans="2:22">
+      <c r="B132" s="17"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="18"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D53704-1B83-D546-95E2-A81D1A45FA26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="J120" sqref="J120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87D0A0-A6C2-F945-B5D0-A9EFA56956D2}">
+  <dimension ref="B5:O96"/>
+  <sheetViews>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="5" spans="2:13">
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="E14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="H15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15">
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15">
+      <c r="H40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15">
+      <c r="L41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15">
+      <c r="O42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="45" spans="5:15">
+      <c r="L45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="47" spans="5:15">
+      <c r="K47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="4:8">
+      <c r="H51" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="54" spans="4:8">
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="4:8">
+      <c r="H55" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="4:8">
+      <c r="D57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3">
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3">
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3">
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3">
+      <c r="B76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3">
+      <c r="C77" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3">
+      <c r="C78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3">
+      <c r="C79" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="D82" s="64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="D83" s="64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="D86" s="65" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="D87" s="66" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="D88" s="65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="C93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="C94" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="C96" t="s">
+        <v>129</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="927" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{F1C9CBAB-69EA-8C4A-8246-20AD87A2ED0B}"/>
+  <xr:revisionPtr revIDLastSave="944" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C26B1F2A-7D5F-234F-935F-B46E048C4345}"/>
   <bookViews>
-    <workbookView xWindow="2740" yWindow="460" windowWidth="30860" windowHeight="19000" activeTab="3" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12940" activeTab="3" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1353,6 +1353,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,7 +1682,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1897,6 +1903,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2289,6 +2301,129 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443021</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>103372</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>310115</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>221512</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9324AC2-804C-3F4D-A0C8-2602F8A425CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4577905" y="9214884"/>
+          <a:ext cx="3175001" cy="915581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>职种：你在项目里面的职位</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>工程：你的项目是在干什么</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812210</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>443021</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>221512</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直线连接符 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DF3011-D89D-BB49-8291-DC8BC8243DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2466163" y="9672675"/>
+          <a:ext cx="2111742" cy="753139"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9466,8 +9601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCBE3B-F85F-DE40-982F-3CACB8FEB57B}">
   <dimension ref="A3:XFD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="86" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26031,40 +26166,40 @@
       <c r="Q45" s="32"/>
     </row>
     <row r="46" spans="1:16384" ht="23">
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="5"/>
+      <c r="C46" s="75"/>
       <c r="D46" s="19"/>
       <c r="E46" s="21"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
       <c r="I46" s="32"/>
-      <c r="L46" s="71" t="s">
+      <c r="L46" s="74" t="s">
         <v>136</v>
       </c>
-      <c r="M46" s="5"/>
+      <c r="M46" s="75"/>
       <c r="N46" s="19"/>
       <c r="O46" s="21"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="32"/>
     </row>
     <row r="47" spans="1:16384" ht="23">
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="C47" s="5"/>
+      <c r="C47" s="75"/>
       <c r="D47" s="19"/>
       <c r="E47" s="21"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
       <c r="I47" s="32"/>
-      <c r="L47" s="71" t="s">
+      <c r="L47" s="74" t="s">
         <v>137</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="75"/>
       <c r="N47" s="19"/>
       <c r="O47" s="21"/>
       <c r="P47" s="5"/>
@@ -26099,10 +26234,10 @@
       <c r="Q48" s="32"/>
     </row>
     <row r="49" spans="2:17" ht="23">
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="5"/>
+      <c r="C49" s="75"/>
       <c r="D49" s="72" t="s">
         <v>143</v>
       </c>
@@ -26115,10 +26250,10 @@
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="32"/>
-      <c r="L49" s="71" t="s">
+      <c r="L49" s="74" t="s">
         <v>138</v>
       </c>
-      <c r="M49" s="5"/>
+      <c r="M49" s="75"/>
       <c r="N49" s="72" t="s">
         <v>143</v>
       </c>
@@ -26127,10 +26262,10 @@
       <c r="Q49" s="32"/>
     </row>
     <row r="50" spans="2:17" ht="23">
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="C50" s="5"/>
+      <c r="C50" s="75"/>
       <c r="D50" s="72" t="s">
         <v>143</v>
       </c>
@@ -26143,10 +26278,10 @@
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="32"/>
-      <c r="L50" s="71" t="s">
+      <c r="L50" s="74" t="s">
         <v>139</v>
       </c>
-      <c r="M50" s="5"/>
+      <c r="M50" s="75"/>
       <c r="N50" s="72" t="s">
         <v>143</v>
       </c>
@@ -26275,7 +26410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
   <dimension ref="B2:V132"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="56" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="56" workbookViewId="0">
       <selection activeCell="V97" sqref="V97"/>
     </sheetView>
   </sheetViews>
@@ -28694,7 +28829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87D0A0-A6C2-F945-B5D0-A9EFA56956D2}">
   <dimension ref="B5:O96"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="91" workbookViewId="0">
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="944" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C26B1F2A-7D5F-234F-935F-B46E048C4345}"/>
+  <xr:revisionPtr revIDLastSave="952" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2C8B5984-B7F3-554E-BB97-FA3ABD848684}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12940" activeTab="3" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12920" activeTab="6" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -6768,6 +6768,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7549,13 +7552,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7572,7 +7575,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4800600" y="8293100"/>
+          <a:off x="4762500" y="7277100"/>
           <a:ext cx="393700" cy="4013200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7775,13 +7778,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -7798,7 +7801,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10782300" y="8750300"/>
+          <a:off x="10756900" y="7734300"/>
           <a:ext cx="393700" cy="1282700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8413,6 +8416,9 @@
         <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -8440,6 +8446,70 @@
             <a:t>JSP</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>729342</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>805542</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>144536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="圆角矩形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B09E2BA5-058C-2E49-AE84-3D5D54B8FF60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3205842" y="6362699"/>
+          <a:ext cx="1727200" cy="690637"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Bean/DTO</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9601,8 +9671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCBE3B-F85F-DE40-982F-3CACB8FEB57B}">
   <dimension ref="A3:XFD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="86" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A32" zoomScale="86" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26410,8 +26480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
   <dimension ref="B2:V132"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="56" workbookViewId="0">
-      <selection activeCell="V97" sqref="V97"/>
+    <sheetView topLeftCell="A18" zoomScale="83" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28829,8 +28899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87D0A0-A6C2-F945-B5D0-A9EFA56956D2}">
   <dimension ref="B5:O96"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="91" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="952" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2C8B5984-B7F3-554E-BB97-FA3ABD848684}"/>
+  <xr:revisionPtr revIDLastSave="959" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6711CE44-F500-DA4B-AC67-7954A1AEA1D9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12920" activeTab="6" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="1920" yWindow="3580" windowWidth="25600" windowHeight="14760" activeTab="6" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="画面改造" sheetId="7" r:id="rId4"/>
     <sheet name="UI" sheetId="3" r:id="rId5"/>
     <sheet name="参照画面的跳转式样" sheetId="5" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="整体架构图" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="155">
   <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -439,6 +439,7 @@
         <sz val="22"/>
         <color rgb="FF002060"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>为技术者自动匹配案件</t>
     </r>
@@ -464,6 +465,7 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>技术者的技术信息登陆</t>
     </r>
@@ -489,6 +491,7 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>案件的技术要求信息登陆</t>
     </r>
@@ -1155,6 +1158,10 @@
     <t>结果画面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>技术者检索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1244,11 +1251,13 @@
       <sz val="22"/>
       <color rgb="FF002060"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -9671,7 +9680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCBE3B-F85F-DE40-982F-3CACB8FEB57B}">
   <dimension ref="A3:XFD58"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="86" workbookViewId="0">
+    <sheetView zoomScale="86" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -26480,8 +26489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
   <dimension ref="B2:V132"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="83" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView topLeftCell="A89" zoomScale="83" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -26592,7 +26601,7 @@
     <row r="23" spans="2:21" ht="35">
       <c r="B23" s="10"/>
       <c r="C23" s="31" t="s">
-        <v>57</v>
+        <v>154</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
@@ -26737,9 +26746,11 @@
       <c r="D29" s="5"/>
       <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="G29" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -26927,9 +26938,11 @@
       <c r="D37" s="5"/>
       <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="G37" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="1"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -26951,9 +26964,11 @@
       <c r="D38" s="5"/>
       <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="G38" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -28899,9 +28914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87D0A0-A6C2-F945-B5D0-A9EFA56956D2}">
   <dimension ref="B5:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="50" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="959" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{6711CE44-F500-DA4B-AC67-7954A1AEA1D9}"/>
+  <xr:revisionPtr revIDLastSave="1275" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2A635C35-5F2D-764E-B60C-AF59CA774BA8}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="3580" windowWidth="25600" windowHeight="14760" activeTab="6" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="2460" yWindow="1720" windowWidth="29000" windowHeight="14760" activeTab="4" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="253">
   <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,10 +305,6 @@
   </si>
   <si>
     <t>返回按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出生年月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1162,12 +1158,534 @@
     <t>技术者检索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>案件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>案件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>場所</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>募集人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>チーム人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開発言語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameWork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ツール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>言語ツール</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務</t>
+  </si>
+  <si>
+    <t>Unix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>SYBASE</t>
+  </si>
+  <si>
+    <t>Oracle</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>Access</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>C＃</t>
+  </si>
+  <si>
+    <t>ABAP</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>PL /SQL</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>VB.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>SALESFORCE</t>
+  </si>
+  <si>
+    <t>VBScript</t>
+  </si>
+  <si>
+    <t>Tomcat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建設業</t>
+  </si>
+  <si>
+    <r>
+      <t>官公庁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自治体</t>
+    </r>
+  </si>
+  <si>
+    <t>製造業</t>
+  </si>
+  <si>
+    <t>Jboss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JavaEE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hibernate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlassFish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流通業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ゲーム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小売業</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融・保険</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財務会計</t>
+  </si>
+  <si>
+    <t>生産管理</t>
+  </si>
+  <si>
+    <r>
+      <t>人事</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>給与</t>
+    </r>
+  </si>
+  <si>
+    <t>販売・物流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>組込みソフト</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>イメージ・画像処理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSシステム</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+  </si>
+  <si>
+    <t>認証</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品質管理</t>
+  </si>
+  <si>
+    <t>環境管理</t>
+  </si>
+  <si>
+    <t>制御処理</t>
+  </si>
+  <si>
+    <t>性能評価</t>
+  </si>
+  <si>
+    <t>DB構築</t>
+  </si>
+  <si>
+    <t>LAN/NW構築</t>
+  </si>
+  <si>
+    <t>追加可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就職開始年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技术</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>年数-开始年月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>经验案件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名称</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>经验案件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>場所</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>工程</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作業</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>開始年月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作業</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>開始年月</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業预计终了年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業实际终了年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+  </si>
+  <si>
+    <t>会社名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最寄駅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>語学力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読み</t>
+  </si>
+  <si>
+    <t>書き</t>
+  </si>
+  <si>
+    <t>会話</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英語</t>
+  </si>
+  <si>
+    <t>日本語レベル</t>
+  </si>
+  <si>
+    <t>英検点数</t>
+  </si>
+  <si>
+    <t>仕事(留学)経験有無</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仕事(留学)経験開始年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术情報入力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>経験案件情報入力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>履歴書出力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MｙSQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【技术方向】与【技术项目】这个东西还是写在property文件里最理想。既可以让用户参照，也可以追加新的选项。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时为了防止用户重复添加，英文都转成大写字母后做重复名称CHK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終卒業学校名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最終学位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1327,6 +1845,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线 (正文)"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1372,7 +1927,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1685,13 +2240,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1918,6 +2501,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2175,15 +2782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>250161</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133498</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>772338</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146198</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2198,8 +2805,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448800" y="10820400"/>
-          <a:ext cx="1346200" cy="419100"/>
+          <a:off x="9346905" y="14103498"/>
+          <a:ext cx="1349154" cy="426188"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -2245,15 +2852,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>235393</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>82697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>757570</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>97465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2268,8 +2875,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9448800" y="11379200"/>
-          <a:ext cx="1346200" cy="419100"/>
+          <a:off x="9332137" y="14687697"/>
+          <a:ext cx="1349154" cy="428256"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -3153,431 +3760,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>70556</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>141112</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="圆角矩形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13D28794-D59F-4E44-8AF9-F03D51D0CED5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4205111" y="14054667"/>
-          <a:ext cx="1284111" cy="493889"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="60325">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>578556</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>197556</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>141112</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="圆角矩形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34BFDB21-087F-E847-9370-A4E770AC2E2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="818445" y="15931445"/>
-          <a:ext cx="1284111" cy="493889"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="60325">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>620890</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>56445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>239890</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="圆角矩形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04EF02FA-141F-DD48-A16E-DDE3BFDC4934}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7521223" y="16340667"/>
-          <a:ext cx="1284111" cy="493889"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="60325">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>310445</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>42334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>649111</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>56445</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="圆角矩形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB4C4903-4894-0247-92DA-FA06CD114AA9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7210778" y="13433778"/>
-          <a:ext cx="2836333" cy="1241778"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
-            <a:t>老师完成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>310445</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="直线连接符 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6708380D-D90E-9645-895C-5913EAD8CA8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="22" idx="3"/>
-          <a:endCxn id="25" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5489222" y="14054667"/>
-          <a:ext cx="1721556" cy="246945"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>197556</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>141112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>268111</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>105834</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="直线连接符 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5018003-7CB5-CE40-AF2D-679C43E4982C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="23" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="2102556" y="14548556"/>
-          <a:ext cx="5065888" cy="1629834"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>430390</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>56445</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直线连接符 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B12CCA1A-8C1F-1949-8FCA-AAA7B3ABD2D3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="24" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7732889" y="14703778"/>
-          <a:ext cx="430390" cy="1636889"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>141112</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3635,147 +3824,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>578556</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>70556</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>197556</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>141112</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="圆角矩形 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5108CC5-C073-614A-B54F-9E191013263D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="818445" y="15931445"/>
-          <a:ext cx="1284111" cy="493889"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="60325">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>620890</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>56445</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>239890</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="圆角矩形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEB1CDFE-5B11-E248-BA93-6EC8F058B2FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7521223" y="16340667"/>
-          <a:ext cx="1284111" cy="493889"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="60325">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>268110</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>14111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>14110</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>165</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3993,13 +4050,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>296334</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>42333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>818445</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>184057</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4128,13 +4185,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>818444</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>145</xdr:row>
       <xdr:rowOff>105834</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4183,13 +4240,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>550334</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>98778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>705555</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4236,13 +4293,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>731864</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>215254</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>322881</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>150678</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4286,7 +4343,7 @@
     <xdr:from>
       <xdr:col>24</xdr:col>
       <xdr:colOff>748974</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>65128</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
@@ -4341,13 +4398,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>416386</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>431583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>162821</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>195385</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4404,13 +4461,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>514079</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>171070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>260513</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>162821</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4458,6 +4515,2196 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>画面迁移</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>110000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3A1B3B0-4AF3-3846-9BDF-FA9D38503859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6880000" y="11060000"/>
+          <a:ext cx="3610000" cy="430000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>例、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>言語</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ツール</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>業種</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>業務</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>650000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>115000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>150000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直线连接符 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{093C3C98-59E2-9541-BF43-E8D7D43F3950}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1720000" y="11275000"/>
+          <a:ext cx="5160000" cy="255000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>140000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="矩形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ECFF235-38EA-3947-8A1D-763D5C904AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6880000" y="11520000"/>
+          <a:ext cx="3610000" cy="520000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>上面大项里面的子项</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>例、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>OS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>690000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>110000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>215000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直线连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40DE9172-63C7-9345-8027-CDEEA25A710A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1760000" y="11710000"/>
+          <a:ext cx="5120000" cy="105000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>10000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>30000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>300000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>100000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="矩形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFD0D783-E055-3840-A783-02637AB3C020}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6890000" y="12070000"/>
+          <a:ext cx="3610000" cy="510000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这对这一个技术有什么资格要求</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>例、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下的认证</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>100000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>145000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="直线连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD9736A-9B45-384E-8F5F-2D18A9FEF3DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1880000" y="11920000"/>
+          <a:ext cx="5000000" cy="485000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290000</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>70000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A72EB34-C2DE-EB47-90A5-ED7DA5352E49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6880000" y="12700000"/>
+          <a:ext cx="3610000" cy="510000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这对这一个技术有什么资格要求</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>例、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>要求最少年经验</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>170000</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>140000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>175000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直线连接符 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C47F4A-F74C-2D41-9DF2-B0214349D108}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2070000" y="12180000"/>
+          <a:ext cx="4810000" cy="695000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>130000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>290000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>60000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="矩形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0501CA1-D3CD-884B-8B84-72414DCF104F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6880000" y="13270000"/>
+          <a:ext cx="3610000" cy="590000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>这对这一个技术有什么备考说明</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>例、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Linux</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>下要是会什么就优先什么的</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>110000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>185000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直线连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2082945E-5EB9-BB46-B415-2A893B341151}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2030000" y="12370000"/>
+          <a:ext cx="4850000" cy="1175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>160000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>110000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="矩形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCFCAD4F-D038-AE45-B93F-61A40CB5A0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7060000" y="13960000"/>
+          <a:ext cx="3610000" cy="590000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>要求做过什么指定的案件</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>例、要求在某某项目有过实绩</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>150000</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>140000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>160000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>25000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直线连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0B9135-6B62-0F4E-9397-740CBF2CBC79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2050000" y="12840000"/>
+          <a:ext cx="4990000" cy="1425000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>20000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="三角形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE76B7D-25FC-9844-BD7E-7C7F8664310B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4180000" y="22910000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>20000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820000</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>170000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="三角形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10375C68-E2CB-2F46-9A96-1B2EB69AC2B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4190000" y="23130000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>50000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>200000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="三角形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C34BF4-2CF6-454E-B18B-3FFD0FDAABDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4180000" y="23380000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>40000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="三角形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DAFB2B8-E6E9-0748-94EE-940AEA360647}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7500000" y="22910000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>40000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>820000</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="三角形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5932BB8-70CA-4D49-B336-76F480124F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7510000" y="23150000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>40000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>820000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="三角形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCB5B91-D76D-DA4B-A6D2-1E2C072D68C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7510000" y="23370000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>610000</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>30000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800000</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="三角形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD53D978-7AE3-2242-9437-B2197E326E47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4170000" y="23580000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>710000</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>30000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>900000</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>200000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="三角形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14D798C-7239-8E46-A346-0363AF3B66E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3440000" y="23940000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>20000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="三角形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F525EF6-ED79-C740-A04D-859673B08B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4180000" y="22910000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>20000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820000</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>170000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="三角形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABF8F13E-C2A8-8547-9CB5-8AC5A49FF00E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4190000" y="23130000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>50000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>200000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="三角形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD6D298-4E1D-B646-A797-1A15C536E8C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4180000" y="23380000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>40000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="三角形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1182DFA9-E95D-8040-A5C5-74499AB289B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7500000" y="22930000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>40000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>820000</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="三角形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92408336-45F6-5B4D-B4D4-D7E03072EB76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7510000" y="23150000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>40000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>820000</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="三角形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F1FAC7-D1EE-F045-9C89-79E25EB47BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="7510000" y="23370000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>610000</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>30000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800000</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="三角形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266316FD-884B-3B46-8778-B2A73F040570}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4170000" y="23580000"/>
+          <a:ext cx="190000" cy="150000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>20000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="三角形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D4F923-340F-2E4D-8437-C7F7D1B2FDEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3350000" y="23790000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>610000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>30000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800000</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>200000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="三角形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E91E8E37-3D40-0B49-A187-CA3249F654F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1680000" y="25440000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>200000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="三角形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B74EB5F-A2B5-044C-BA7F-2984B0AAD8BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4280000" y="11450000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>10000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>180000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="三角形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B88F3F1-5A7B-E64D-BBD5-08D444E946CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4280000" y="11650000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>20000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="三角形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37603CF0-5E1D-094D-8335-5DC31FFE0094}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4290000" y="13640000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>620000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>20000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>810000</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>190000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="三角形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CADA6EE-3613-5942-AA63-3A11157707E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4280000" y="13420000"/>
+          <a:ext cx="190000" cy="170000"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8834,27 +11081,27 @@
   <sheetData>
     <row r="5" spans="2:2" ht="28">
       <c r="B5" s="43" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:2" ht="28">
       <c r="B6" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="28">
       <c r="B7" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="28">
       <c r="B8" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="28">
       <c r="B9" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="28">
@@ -8862,12 +11109,12 @@
     </row>
     <row r="11" spans="2:2" ht="28">
       <c r="B11" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="28">
       <c r="B12" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="28">
@@ -8875,7 +11122,7 @@
     </row>
     <row r="14" spans="2:2" ht="28">
       <c r="B14" s="43" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="28">
@@ -8883,7 +11130,7 @@
     </row>
     <row r="16" spans="2:2" ht="28">
       <c r="B16" s="43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="28">
@@ -8892,7 +11139,7 @@
     <row r="18" spans="2:7" ht="28">
       <c r="B18" s="43"/>
       <c r="G18" s="28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -9139,7 +11386,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
@@ -9156,7 +11403,7 @@
         <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="47"/>
       <c r="G13" s="48"/>
@@ -9174,7 +11421,7 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F14" s="47"/>
       <c r="G14" s="48"/>
@@ -9192,7 +11439,7 @@
         <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="47"/>
       <c r="G15" s="48"/>
@@ -9317,7 +11564,7 @@
         <v>17</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G21" s="48"/>
       <c r="H21" s="48"/>
@@ -9527,7 +11774,7 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>32</v>
@@ -9678,22 +11925,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCBE3B-F85F-DE40-982F-3CACB8FEB57B}">
-  <dimension ref="A3:XFD58"/>
+  <dimension ref="A3:XFD67"/>
   <sheetViews>
-    <sheetView zoomScale="86" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView topLeftCell="A31" zoomScale="86" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="3" spans="1:18" ht="23">
       <c r="B3" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="23">
       <c r="B4" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -9703,12 +11950,12 @@
     </row>
     <row r="7" spans="1:18" ht="26">
       <c r="B7" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="23">
       <c r="A9" s="73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="73"/>
       <c r="C9" s="73"/>
@@ -9730,7 +11977,7 @@
     </row>
     <row r="38" spans="1:16384" ht="24" thickBot="1">
       <c r="A38" s="73" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
@@ -26134,7 +28381,7 @@
     </row>
     <row r="40" spans="1:16384" ht="28">
       <c r="B40" s="70" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -26144,7 +28391,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="32"/>
       <c r="L40" s="70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -26184,9 +28431,9 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="32"/>
     </row>
-    <row r="43" spans="1:16384" ht="23">
+    <row r="43" spans="1:16384" ht="24">
       <c r="B43" s="71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="19"/>
@@ -26196,7 +28443,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="32"/>
       <c r="L43" s="71" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="19"/>
@@ -26206,7 +28453,7 @@
     </row>
     <row r="44" spans="1:16384" ht="23">
       <c r="B44" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="19"/>
@@ -26216,7 +28463,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="32"/>
       <c r="L44" s="71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" s="19"/>
@@ -26224,9 +28471,9 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="32"/>
     </row>
-    <row r="45" spans="1:16384" ht="23">
+    <row r="45" spans="1:16384" ht="24">
       <c r="B45" s="71" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="19"/>
@@ -26236,7 +28483,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="32"/>
       <c r="L45" s="71" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="M45" s="5"/>
       <c r="N45" s="19"/>
@@ -26246,7 +28493,7 @@
     </row>
     <row r="46" spans="1:16384" ht="23">
       <c r="B46" s="74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="75"/>
       <c r="D46" s="19"/>
@@ -26256,7 +28503,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="32"/>
       <c r="L46" s="74" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="M46" s="75"/>
       <c r="N46" s="19"/>
@@ -26266,7 +28513,7 @@
     </row>
     <row r="47" spans="1:16384" ht="23">
       <c r="B47" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C47" s="75"/>
       <c r="D47" s="19"/>
@@ -26276,7 +28523,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="32"/>
       <c r="L47" s="74" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="M47" s="75"/>
       <c r="N47" s="19"/>
@@ -26284,29 +28531,29 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="32"/>
     </row>
-    <row r="48" spans="1:16384" ht="23">
+    <row r="48" spans="1:16384" ht="24">
       <c r="B48" s="71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G48" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H48" s="21"/>
       <c r="I48" s="32"/>
       <c r="L48" s="71" t="s">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O48" s="21"/>
       <c r="P48" s="5"/>
@@ -26314,27 +28561,27 @@
     </row>
     <row r="49" spans="2:17" ht="23">
       <c r="B49" s="74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C49" s="75"/>
       <c r="D49" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G49" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H49" s="21"/>
       <c r="I49" s="32"/>
       <c r="L49" s="74" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="M49" s="75"/>
       <c r="N49" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O49" s="21"/>
       <c r="P49" s="5"/>
@@ -26342,27 +28589,27 @@
     </row>
     <row r="50" spans="2:17" ht="23">
       <c r="B50" s="74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C50" s="75"/>
       <c r="D50" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H50" s="21"/>
       <c r="I50" s="32"/>
       <c r="L50" s="74" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="M50" s="75"/>
       <c r="N50" s="72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O50" s="21"/>
       <c r="P50" s="5"/>
@@ -26370,27 +28617,27 @@
     </row>
     <row r="51" spans="2:17" ht="23">
       <c r="B51" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="72"/>
       <c r="E51" s="21"/>
       <c r="F51" s="69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G51" s="72"/>
       <c r="H51" s="21"/>
       <c r="I51" s="32"/>
-      <c r="L51" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="M51" s="5"/>
+      <c r="L51" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="M51" s="75"/>
       <c r="N51" s="72"/>
       <c r="O51" s="21"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="32"/>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" ht="23">
       <c r="B52" s="8"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -26399,14 +28646,16 @@
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
       <c r="I52" s="32"/>
-      <c r="L52" s="8"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
+      <c r="L52" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="M52" s="75"/>
+      <c r="N52" s="72"/>
+      <c r="O52" s="21"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="32"/>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" ht="23">
       <c r="B53" s="8"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -26415,14 +28664,16 @@
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
       <c r="I53" s="32"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
+      <c r="L53" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="M53" s="74"/>
+      <c r="N53" s="72"/>
+      <c r="O53" s="21"/>
       <c r="P53" s="5"/>
       <c r="Q53" s="32"/>
     </row>
-    <row r="54" spans="2:17">
+    <row r="54" spans="2:17" ht="23">
       <c r="B54" s="8"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -26431,14 +28682,16 @@
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
       <c r="I54" s="32"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
+      <c r="L54" s="74" t="s">
+        <v>159</v>
+      </c>
+      <c r="M54" s="76"/>
+      <c r="N54" s="72"/>
+      <c r="O54" s="21"/>
       <c r="P54" s="5"/>
       <c r="Q54" s="32"/>
     </row>
-    <row r="55" spans="2:17" ht="17" thickBot="1">
+    <row r="55" spans="2:17" ht="24" thickBot="1">
       <c r="B55" s="7"/>
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
@@ -26447,36 +28700,114 @@
       <c r="G55" s="33"/>
       <c r="H55" s="33"/>
       <c r="I55" s="4"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
+      <c r="L55" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="M55" s="76"/>
+      <c r="N55" s="72"/>
+      <c r="O55" s="21"/>
       <c r="P55" s="5"/>
       <c r="Q55" s="32"/>
     </row>
-    <row r="56" spans="2:17">
-      <c r="L56" s="8"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
+    <row r="56" spans="2:17" ht="23">
+      <c r="L56" s="74" t="s">
+        <v>161</v>
+      </c>
+      <c r="M56" s="76"/>
+      <c r="N56" s="72"/>
+      <c r="O56" s="21"/>
       <c r="P56" s="5"/>
       <c r="Q56" s="32"/>
     </row>
-    <row r="57" spans="2:17">
-      <c r="L57" s="8"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
+    <row r="57" spans="2:17" ht="23">
+      <c r="L57" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="M57" s="76"/>
+      <c r="N57" s="72"/>
+      <c r="O57" s="21"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="32"/>
     </row>
-    <row r="58" spans="2:17" ht="17" thickBot="1">
-      <c r="L58" s="7"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="4"/>
+    <row r="58" spans="2:17">
+      <c r="L58" s="8"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="32"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="L59" s="8"/>
+      <c r="M59" s="5"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="32"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="L60" s="8"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="32"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="L61" s="8"/>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+      <c r="O61" s="5"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="32"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="L62" s="8"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="5"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="5"/>
+      <c r="Q62" s="32"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="L63" s="8"/>
+      <c r="M63" s="5"/>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5"/>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="32"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="L64" s="8"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="5"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="5"/>
+      <c r="Q64" s="32"/>
+    </row>
+    <row r="65" spans="12:17">
+      <c r="L65" s="8"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="32"/>
+    </row>
+    <row r="66" spans="12:17">
+      <c r="L66" s="8"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="32"/>
+    </row>
+    <row r="67" spans="12:17" ht="17" thickBot="1">
+      <c r="L67" s="7"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -26487,20 +28818,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
-  <dimension ref="B2:V132"/>
+  <dimension ref="B2:V186"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScale="83" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="127" workbookViewId="0">
+      <selection activeCell="B156" sqref="B156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="26">
       <c r="B2" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="17" thickBot="1"/>
@@ -26597,1219 +28929,998 @@
       <c r="F15" s="57"/>
       <c r="G15" s="58"/>
     </row>
-    <row r="22" spans="2:21" ht="17" thickBot="1"/>
-    <row r="23" spans="2:21" ht="35">
-      <c r="B23" s="10"/>
-      <c r="C23" s="31" t="s">
-        <v>154</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="11"/>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>249</v>
+      </c>
     </row>
-    <row r="24" spans="2:21">
-      <c r="B24" s="8"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="32"/>
+    <row r="23" spans="2:10" ht="17" thickBot="1">
+      <c r="D23" t="s">
+        <v>250</v>
+      </c>
     </row>
-    <row r="25" spans="2:21" ht="17" thickBot="1">
-      <c r="B25" s="8"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
+    <row r="24" spans="2:10" ht="23">
+      <c r="B24" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>175</v>
+      </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>191</v>
+      </c>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>205</v>
+      </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="32"/>
+      <c r="J25" s="32"/>
     </row>
-    <row r="26" spans="2:21" ht="17" thickBot="1">
-      <c r="B26" s="8"/>
+    <row r="26" spans="2:10">
+      <c r="B26" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="C26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>192</v>
+      </c>
       <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="H26" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="32"/>
+      <c r="J26" s="32"/>
     </row>
-    <row r="27" spans="2:21" ht="17" thickBot="1">
-      <c r="B27" s="8"/>
+    <row r="27" spans="2:10">
+      <c r="B27" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="C27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>193</v>
+      </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="H27" s="5" t="s">
+        <v>207</v>
+      </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="32"/>
+      <c r="J27" s="32"/>
     </row>
-    <row r="28" spans="2:21" ht="17" thickBot="1">
-      <c r="B28" s="8"/>
+    <row r="28" spans="2:10">
+      <c r="B28" s="83" t="s">
+        <v>220</v>
+      </c>
       <c r="C28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="40" t="s">
+        <v>200</v>
+      </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="40" t="s">
+        <v>208</v>
+      </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="32"/>
+      <c r="J28" s="32"/>
     </row>
-    <row r="29" spans="2:21" ht="17" thickBot="1">
-      <c r="B29" s="8"/>
+    <row r="29" spans="2:10">
+      <c r="B29" s="83"/>
       <c r="C29" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="32"/>
+        <v>173</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="I29" s="5"/>
+      <c r="J29" s="32"/>
     </row>
-    <row r="30" spans="2:21" ht="17" thickBot="1">
-      <c r="B30" s="8"/>
+    <row r="30" spans="2:10">
+      <c r="B30" s="83"/>
       <c r="C30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
+        <v>174</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E30" s="5"/>
+      <c r="F30" s="40" t="s">
+        <v>202</v>
+      </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="40" t="s">
+        <v>210</v>
+      </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="32"/>
+      <c r="J30" s="32"/>
     </row>
-    <row r="31" spans="2:21" ht="17" thickBot="1">
+    <row r="31" spans="2:10">
       <c r="B31" s="8"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="5"/>
+      <c r="C31" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="E31" s="5"/>
+      <c r="F31" s="40" t="s">
+        <v>203</v>
+      </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
+      <c r="H31" s="40" t="s">
+        <v>211</v>
+      </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="32"/>
+      <c r="J31" s="32"/>
     </row>
-    <row r="32" spans="2:21" ht="17" thickBot="1">
+    <row r="32" spans="2:10">
       <c r="B32" s="8"/>
-      <c r="C32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
+      <c r="H32" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
-    <row r="33" spans="2:21" ht="17" thickBot="1">
+    <row r="33" spans="2:10">
       <c r="B33" s="8"/>
-      <c r="C33" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
+      <c r="H33" s="40" t="s">
+        <v>213</v>
+      </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
-    <row r="34" spans="2:21" ht="17" thickBot="1">
+    <row r="34" spans="2:10">
       <c r="B34" s="8"/>
-      <c r="C34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="E34" s="5"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>214</v>
+      </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="32"/>
+      <c r="J34" s="32"/>
     </row>
-    <row r="35" spans="2:21" ht="17" thickBot="1">
+    <row r="35" spans="2:10">
       <c r="B35" s="8"/>
-      <c r="C35" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
+      <c r="H35" s="5" t="s">
+        <v>215</v>
+      </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="32"/>
+      <c r="J35" s="32"/>
     </row>
-    <row r="36" spans="2:21" ht="17" thickBot="1">
+    <row r="36" spans="2:10">
       <c r="B36" s="8"/>
-      <c r="C36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
+      <c r="H36" s="5" t="s">
+        <v>216</v>
+      </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="32"/>
+      <c r="J36" s="32"/>
     </row>
-    <row r="37" spans="2:21" ht="17" thickBot="1">
+    <row r="37" spans="2:10">
       <c r="B37" s="8"/>
-      <c r="C37" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="32"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="40" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="I37" s="5"/>
+      <c r="J37" s="32"/>
     </row>
-    <row r="38" spans="2:21" ht="17" thickBot="1">
+    <row r="38" spans="2:10">
       <c r="B38" s="8"/>
-      <c r="C38" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="32"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I38" s="5"/>
+      <c r="J38" s="32"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:10">
       <c r="B39" s="8"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
+      <c r="D39" s="5" t="s">
+        <v>188</v>
+      </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
+      <c r="H39" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="32"/>
+      <c r="J39" s="32"/>
     </row>
-    <row r="40" spans="2:21" ht="17" thickBot="1">
+    <row r="40" spans="2:10">
       <c r="B40" s="8"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="5" t="s">
+        <v>189</v>
+      </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
+      <c r="H40" s="22" t="s">
+        <v>220</v>
+      </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="32"/>
+      <c r="J40" s="32"/>
     </row>
-    <row r="41" spans="2:21" ht="17" thickBot="1">
+    <row r="41" spans="2:10">
       <c r="B41" s="8"/>
-      <c r="C41" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>63</v>
+      <c r="C41" s="5"/>
+      <c r="D41" s="40" t="s">
+        <v>190</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
+      <c r="H41" s="22"/>
       <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:10">
       <c r="B42" s="8"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="D42" s="40" t="s">
+        <v>194</v>
+      </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="H42" s="22"/>
       <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="9"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:10">
       <c r="B43" s="8"/>
-      <c r="C43" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G43" s="25"/>
-      <c r="H43" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="36"/>
-      <c r="J43" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="24"/>
-      <c r="O43" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="R43" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="S43" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="T43" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="U43" s="32"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="32"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:10">
       <c r="B44" s="8"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="32"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="40" t="s">
+        <v>196</v>
+      </c>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="32"/>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:10">
       <c r="B45" s="8"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="32"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="32"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:10">
       <c r="B46" s="8"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="21"/>
-      <c r="J46" s="19"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="22"/>
-      <c r="S46" s="22"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="32"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="40" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="32"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:10">
       <c r="B47" s="8"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="21"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="22"/>
-      <c r="S47" s="22"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="32"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="32"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:10">
       <c r="B48" s="8"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="21"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="19"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="22"/>
-      <c r="S48" s="22"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="32"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="2:21">
       <c r="B49" s="8"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="19"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="19"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="32"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="2:21">
       <c r="B50" s="8"/>
-      <c r="C50" s="22"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="21"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="32"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="32"/>
     </row>
-    <row r="51" spans="2:21">
-      <c r="B51" s="8"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="32"/>
+    <row r="51" spans="2:21" ht="17" thickBot="1">
+      <c r="B51" s="7"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="4"/>
     </row>
-    <row r="52" spans="2:21">
-      <c r="B52" s="8"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="32"/>
+    <row r="52" spans="2:21" ht="17" thickBot="1"/>
+    <row r="53" spans="2:21" ht="35">
+      <c r="B53" s="10"/>
+      <c r="C53" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="11"/>
     </row>
-    <row r="53" spans="2:21" ht="17" thickBot="1">
-      <c r="B53" s="7"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="4"/>
+    <row r="54" spans="2:21">
+      <c r="B54" s="8"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="32"/>
     </row>
-    <row r="55" spans="2:21" ht="31">
-      <c r="B55" s="29" t="s">
-        <v>101</v>
-      </c>
+    <row r="55" spans="2:21" ht="17" thickBot="1">
+      <c r="B55" s="8"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="32"/>
     </row>
-    <row r="62" spans="2:21" ht="35">
-      <c r="B62" s="12"/>
-      <c r="C62" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="14"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="45"/>
-      <c r="Q62" s="45"/>
-      <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="45"/>
-      <c r="U62" s="46"/>
+    <row r="56" spans="2:21" ht="17" thickBot="1">
+      <c r="B56" s="8"/>
+      <c r="C56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="40"/>
+      <c r="U56" s="32"/>
     </row>
-    <row r="63" spans="2:21">
-      <c r="B63" s="15"/>
-      <c r="C63" s="5"/>
+    <row r="57" spans="2:21" ht="17" thickBot="1">
+      <c r="B57" s="8"/>
+      <c r="C57" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="U57" s="32"/>
+    </row>
+    <row r="58" spans="2:21" ht="17" thickBot="1">
+      <c r="B58" s="8"/>
+      <c r="C58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="U58" s="32"/>
+    </row>
+    <row r="59" spans="2:21" ht="17" thickBot="1">
+      <c r="B59" s="8"/>
+      <c r="C59" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="H59" s="1"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="U59" s="32"/>
+    </row>
+    <row r="60" spans="2:21" ht="17" thickBot="1">
+      <c r="B60" s="8"/>
+      <c r="C60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="5"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="U60" s="32"/>
+    </row>
+    <row r="61" spans="2:21" ht="17" thickBot="1">
+      <c r="B61" s="8"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="U61" s="32"/>
+    </row>
+    <row r="62" spans="2:21" ht="17" thickBot="1">
+      <c r="B62" s="8"/>
+      <c r="C62" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D62" s="5"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="U62" s="32"/>
+    </row>
+    <row r="63" spans="2:21" ht="17" thickBot="1">
+      <c r="B63" s="8"/>
+      <c r="C63" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="16"/>
-      <c r="O63" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="R63" s="48"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="48"/>
-      <c r="U63" s="49"/>
+      <c r="U63" s="32"/>
     </row>
-    <row r="64" spans="2:21">
-      <c r="B64" s="15"/>
-      <c r="C64" s="5"/>
+    <row r="64" spans="2:21" ht="17" thickBot="1">
+      <c r="B64" s="8"/>
+      <c r="C64" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="2"/>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
       <c r="I64" s="5"/>
       <c r="J64" s="5"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="16"/>
-      <c r="O64" s="47"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="R64" s="48"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="48"/>
-      <c r="U64" s="49"/>
+      <c r="U64" s="32"/>
     </row>
-    <row r="65" spans="2:21">
-      <c r="B65" s="15"/>
-      <c r="C65" s="5"/>
+    <row r="65" spans="2:21" ht="17" thickBot="1">
+      <c r="B65" s="8"/>
+      <c r="C65" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
       <c r="I65" s="5"/>
       <c r="J65" s="5"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="16"/>
-      <c r="O65" s="47"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="48"/>
-      <c r="U65" s="49"/>
+      <c r="U65" s="32"/>
     </row>
     <row r="66" spans="2:21" ht="17" thickBot="1">
-      <c r="B66" s="15"/>
-      <c r="C66" s="5"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="5" t="s">
+        <v>225</v>
+      </c>
       <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
       <c r="J66" s="5"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="16"/>
-      <c r="O66" s="47"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="49"/>
+      <c r="U66" s="32"/>
     </row>
     <row r="67" spans="2:21" ht="17" thickBot="1">
-      <c r="B67" s="15"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
-        <v>64</v>
+        <v>227</v>
       </c>
       <c r="D67" s="5"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="H67" s="1"/>
+      <c r="I67" s="2"/>
       <c r="J67" s="5"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="16"/>
-      <c r="O67" s="47"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="48"/>
-      <c r="U67" s="49"/>
+      <c r="U67" s="32"/>
     </row>
     <row r="68" spans="2:21" ht="17" thickBot="1">
-      <c r="B68" s="15"/>
-      <c r="C68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="H68" s="1"/>
+      <c r="I68" s="2"/>
       <c r="J68" s="5"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="16"/>
-      <c r="O68" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="U68" s="49"/>
+      <c r="U68" s="32"/>
     </row>
-    <row r="69" spans="2:21" ht="17" thickBot="1">
-      <c r="B69" s="15"/>
-      <c r="C69" s="5" t="s">
-        <v>13</v>
-      </c>
+    <row r="69" spans="2:21">
+      <c r="B69" s="8"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="5"/>
       <c r="H69" s="5"/>
       <c r="I69" s="5"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="16"/>
-      <c r="O69" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="R69" s="48"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="U69" s="49"/>
+      <c r="U69" s="32"/>
     </row>
     <row r="70" spans="2:21" ht="17" thickBot="1">
-      <c r="B70" s="15"/>
-      <c r="C70" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="B70" s="8"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="5"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="5"/>
       <c r="H70" s="5"/>
       <c r="I70" s="5"/>
       <c r="J70" s="5"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="16"/>
-      <c r="O70" s="47"/>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="48"/>
-      <c r="S70" s="48"/>
-      <c r="T70" s="48"/>
-      <c r="U70" s="49"/>
+      <c r="U70" s="32"/>
     </row>
     <row r="71" spans="2:21" ht="17" thickBot="1">
-      <c r="B71" s="15"/>
-      <c r="C71" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="16"/>
-      <c r="O71" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="P71" s="48"/>
-      <c r="Q71" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="R71" s="48"/>
-      <c r="S71" s="48"/>
-      <c r="T71" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="U71" s="49"/>
+      <c r="U71" s="32"/>
     </row>
-    <row r="72" spans="2:21" ht="17" thickBot="1">
-      <c r="B72" s="15"/>
-      <c r="C72" s="40" t="s">
-        <v>69</v>
-      </c>
+    <row r="72" spans="2:21">
+      <c r="B72" s="8"/>
+      <c r="C72" s="5"/>
       <c r="D72" s="5"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="16"/>
-      <c r="O72" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="P72" s="48"/>
-      <c r="Q72" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="R72" s="48"/>
-      <c r="S72" s="48"/>
-      <c r="T72" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="U72" s="49"/>
+      <c r="L72" s="9"/>
+      <c r="U72" s="32"/>
     </row>
     <row r="73" spans="2:21">
-      <c r="B73" s="15"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="16"/>
-      <c r="O73" s="47"/>
-      <c r="P73" s="48"/>
-      <c r="Q73" s="48"/>
-      <c r="R73" s="48"/>
-      <c r="S73" s="48"/>
-      <c r="T73" s="48"/>
-      <c r="U73" s="49"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="25"/>
+      <c r="H73" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="36"/>
+      <c r="J73" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="K73" s="24"/>
+      <c r="L73" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M73" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" s="24"/>
+      <c r="O73" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="P73" s="24"/>
+      <c r="Q73" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="R73" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="S73" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="T73" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="U73" s="32"/>
     </row>
     <row r="74" spans="2:21">
-      <c r="B74" s="15"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="16"/>
-      <c r="O74" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="P74" s="48"/>
-      <c r="Q74" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="R74" s="48"/>
-      <c r="S74" s="48"/>
-      <c r="T74" s="48"/>
-      <c r="U74" s="49"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="21"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="21"/>
+      <c r="U74" s="32"/>
     </row>
-    <row r="75" spans="2:21" ht="17" thickBot="1">
-      <c r="B75" s="15"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="16"/>
-      <c r="O75" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="P75" s="48"/>
-      <c r="Q75" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="R75" s="48"/>
-      <c r="S75" s="48"/>
-      <c r="T75" s="48"/>
-      <c r="U75" s="49"/>
+    <row r="75" spans="2:21">
+      <c r="B75" s="8"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="21"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="21"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="21"/>
+      <c r="U75" s="32"/>
     </row>
-    <row r="76" spans="2:21" ht="17" thickBot="1">
-      <c r="B76" s="15"/>
-      <c r="C76" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="16"/>
-      <c r="O76" s="47"/>
-      <c r="P76" s="48"/>
-      <c r="Q76" s="48"/>
-      <c r="R76" s="48"/>
-      <c r="S76" s="48"/>
-      <c r="T76" s="48"/>
-      <c r="U76" s="49"/>
+    <row r="76" spans="2:21">
+      <c r="B76" s="8"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="22"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="19"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="19"/>
+      <c r="M76" s="19"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="19"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="21"/>
+      <c r="U76" s="32"/>
     </row>
-    <row r="77" spans="2:21" ht="17" thickBot="1">
-      <c r="B77" s="15"/>
-      <c r="C77" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="25"/>
-      <c r="G77" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H77" s="36"/>
-      <c r="I77" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J77" s="24"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="16"/>
-      <c r="O77" s="47"/>
-      <c r="P77" s="48"/>
-      <c r="Q77" s="48"/>
-      <c r="R77" s="48"/>
-      <c r="S77" s="48"/>
-      <c r="T77" s="48"/>
-      <c r="U77" s="49"/>
+    <row r="77" spans="2:21">
+      <c r="B77" s="8"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="22"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="19"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="19"/>
+      <c r="M77" s="19"/>
+      <c r="N77" s="21"/>
+      <c r="O77" s="19"/>
+      <c r="P77" s="21"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="22"/>
+      <c r="T77" s="21"/>
+      <c r="U77" s="32"/>
     </row>
-    <row r="78" spans="2:21" ht="17" thickBot="1">
-      <c r="B78" s="15"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="22"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="19"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L78" s="5"/>
-      <c r="M78" s="16"/>
-      <c r="O78" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="P78" s="48"/>
-      <c r="Q78" s="48"/>
-      <c r="R78" s="48"/>
-      <c r="S78" s="48"/>
-      <c r="T78" s="48"/>
-      <c r="U78" s="49"/>
+    <row r="78" spans="2:21">
+      <c r="B78" s="8"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="19"/>
+      <c r="M78" s="19"/>
+      <c r="N78" s="21"/>
+      <c r="O78" s="19"/>
+      <c r="P78" s="21"/>
+      <c r="Q78" s="20"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="21"/>
+      <c r="U78" s="32"/>
     </row>
     <row r="79" spans="2:21">
-      <c r="B79" s="15"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="16"/>
-      <c r="O79" s="50"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="51"/>
-      <c r="S79" s="51"/>
-      <c r="T79" s="51"/>
-      <c r="U79" s="52"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="22"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="21"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="21"/>
+      <c r="Q79" s="20"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="22"/>
+      <c r="T79" s="21"/>
+      <c r="U79" s="32"/>
     </row>
     <row r="80" spans="2:21">
-      <c r="B80" s="15"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="16"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="19"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="19"/>
+      <c r="M80" s="19"/>
+      <c r="N80" s="21"/>
+      <c r="O80" s="19"/>
+      <c r="P80" s="21"/>
+      <c r="Q80" s="20"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="21"/>
+      <c r="U80" s="32"/>
     </row>
-    <row r="81" spans="2:13">
-      <c r="B81" s="15"/>
+    <row r="81" spans="2:21">
+      <c r="B81" s="8"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -27820,10 +29931,18 @@
       <c r="J81" s="5"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="16"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5"/>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="5"/>
+      <c r="U81" s="32"/>
     </row>
-    <row r="82" spans="2:13">
-      <c r="B82" s="15"/>
+    <row r="82" spans="2:21">
+      <c r="B82" s="8"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -27834,173 +29953,69 @@
       <c r="J82" s="5"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="16"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5"/>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="5"/>
+      <c r="U82" s="32"/>
     </row>
-    <row r="83" spans="2:13" ht="17" thickBot="1">
-      <c r="B83" s="15"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
-      <c r="L83" s="5"/>
-      <c r="M83" s="16"/>
+    <row r="83" spans="2:21" ht="17" thickBot="1">
+      <c r="B83" s="7"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="33"/>
+      <c r="L83" s="33"/>
+      <c r="M83" s="33"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="4"/>
     </row>
-    <row r="84" spans="2:13" ht="17" thickBot="1">
-      <c r="B84" s="15"/>
-      <c r="C84" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
-      <c r="L84" s="5"/>
-      <c r="M84" s="16"/>
+    <row r="85" spans="2:21" ht="31">
+      <c r="B85" s="29" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="85" spans="2:13" ht="17" thickBot="1">
-      <c r="B85" s="15"/>
-      <c r="C85" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="24"/>
-      <c r="F85" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" s="24"/>
-      <c r="H85" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I85" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J85" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K85" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="L85" s="5"/>
-      <c r="M85" s="16"/>
+    <row r="92" spans="2:21" ht="35">
+      <c r="B92" s="12"/>
+      <c r="C92" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="14"/>
+      <c r="O92" s="44"/>
+      <c r="P92" s="45"/>
+      <c r="Q92" s="45"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="45"/>
+      <c r="U92" s="46"/>
     </row>
-    <row r="86" spans="2:13" ht="17" thickBot="1">
-      <c r="B86" s="15"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="22"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M86" s="16"/>
-    </row>
-    <row r="87" spans="2:13">
-      <c r="B87" s="15"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="16"/>
-    </row>
-    <row r="88" spans="2:13">
-      <c r="B88" s="15"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="16"/>
-    </row>
-    <row r="89" spans="2:13">
-      <c r="B89" s="15"/>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="16"/>
-    </row>
-    <row r="90" spans="2:13" ht="17" thickBot="1">
-      <c r="B90" s="15"/>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
-      <c r="L90" s="5"/>
-      <c r="M90" s="16"/>
-    </row>
-    <row r="91" spans="2:13" ht="17" thickBot="1">
-      <c r="B91" s="15"/>
-      <c r="C91" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="16"/>
-    </row>
-    <row r="92" spans="2:13" ht="17" thickBot="1">
-      <c r="B92" s="15"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
-      <c r="L92" s="5"/>
-      <c r="M92" s="16"/>
-    </row>
-    <row r="93" spans="2:13" ht="17" thickBot="1">
+    <row r="93" spans="2:21">
       <c r="B93" s="15"/>
-      <c r="C93" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
@@ -28011,8 +30026,19 @@
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
       <c r="M93" s="16"/>
+      <c r="O93" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="P93" s="48"/>
+      <c r="Q93" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="R93" s="48"/>
+      <c r="S93" s="48"/>
+      <c r="T93" s="48"/>
+      <c r="U93" s="49"/>
     </row>
-    <row r="94" spans="2:13">
+    <row r="94" spans="2:21">
       <c r="B94" s="15"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -28025,171 +30051,276 @@
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
       <c r="M94" s="16"/>
+      <c r="O94" s="47"/>
+      <c r="P94" s="48"/>
+      <c r="Q94" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="R94" s="48"/>
+      <c r="S94" s="48"/>
+      <c r="T94" s="48"/>
+      <c r="U94" s="49"/>
     </row>
-    <row r="95" spans="2:13">
-      <c r="B95" s="17"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="18"/>
+    <row r="95" spans="2:21">
+      <c r="B95" s="15"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="16"/>
+      <c r="O95" s="47"/>
+      <c r="P95" s="48"/>
+      <c r="Q95" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="R95" s="48"/>
+      <c r="S95" s="48"/>
+      <c r="T95" s="48"/>
+      <c r="U95" s="49"/>
     </row>
-    <row r="99" spans="2:22" ht="35">
-      <c r="B99" s="12"/>
-      <c r="C99" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13"/>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13"/>
-      <c r="L99" s="13"/>
-      <c r="M99" s="14"/>
-      <c r="O99" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="P99" s="13"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="13"/>
-      <c r="S99" s="13"/>
-      <c r="T99" s="13"/>
-      <c r="U99" s="13"/>
-      <c r="V99" s="14"/>
+    <row r="96" spans="2:21" ht="17" thickBot="1">
+      <c r="B96" s="15"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="16"/>
+      <c r="O96" s="47"/>
+      <c r="P96" s="48"/>
+      <c r="Q96" s="48"/>
+      <c r="R96" s="48"/>
+      <c r="S96" s="48"/>
+      <c r="T96" s="48"/>
+      <c r="U96" s="49"/>
     </row>
-    <row r="100" spans="2:22">
+    <row r="97" spans="2:21" ht="17" thickBot="1">
+      <c r="B97" s="15"/>
+      <c r="C97" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D97" s="5"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="16"/>
+      <c r="O97" s="47"/>
+      <c r="P97" s="48"/>
+      <c r="Q97" s="48"/>
+      <c r="R97" s="48"/>
+      <c r="S97" s="48"/>
+      <c r="T97" s="48"/>
+      <c r="U97" s="49"/>
+    </row>
+    <row r="98" spans="2:21" ht="17" thickBot="1">
+      <c r="B98" s="15"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="16"/>
+      <c r="O98" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="P98" s="48"/>
+      <c r="Q98" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="R98" s="48"/>
+      <c r="S98" s="48"/>
+      <c r="T98" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U98" s="49"/>
+    </row>
+    <row r="99" spans="2:21" ht="17" thickBot="1">
+      <c r="B99" s="15"/>
+      <c r="C99" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="5"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="16"/>
+      <c r="O99" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="P99" s="48"/>
+      <c r="Q99" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="R99" s="48"/>
+      <c r="S99" s="48"/>
+      <c r="T99" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U99" s="49"/>
+    </row>
+    <row r="100" spans="2:21" ht="17" thickBot="1">
       <c r="B100" s="15"/>
-      <c r="C100" s="5"/>
+      <c r="C100" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
       <c r="M100" s="16"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5"/>
-      <c r="V100" s="16"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="48"/>
+      <c r="Q100" s="48"/>
+      <c r="R100" s="48"/>
+      <c r="S100" s="48"/>
+      <c r="T100" s="48"/>
+      <c r="U100" s="49"/>
     </row>
-    <row r="101" spans="2:22">
+    <row r="101" spans="2:21" ht="17" thickBot="1">
       <c r="B101" s="15"/>
-      <c r="C101" s="5"/>
+      <c r="C101" s="77" t="s">
+        <v>230</v>
+      </c>
       <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
       <c r="M101" s="16"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
-      <c r="U101" s="5"/>
-      <c r="V101" s="16"/>
+      <c r="O101" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="P101" s="48"/>
+      <c r="Q101" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="R101" s="48"/>
+      <c r="S101" s="48"/>
+      <c r="T101" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U101" s="49"/>
     </row>
-    <row r="102" spans="2:22" ht="17" thickBot="1">
+    <row r="102" spans="2:21" ht="17" thickBot="1">
       <c r="B102" s="15"/>
-      <c r="C102" s="5"/>
+      <c r="C102" s="78" t="s">
+        <v>251</v>
+      </c>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="8"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
       <c r="M102" s="16"/>
-      <c r="O102" s="15"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-      <c r="U102" s="5"/>
-      <c r="V102" s="16"/>
+      <c r="O102" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="P102" s="48"/>
+      <c r="Q102" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="R102" s="48"/>
+      <c r="S102" s="48"/>
+      <c r="T102" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="U102" s="49"/>
     </row>
-    <row r="103" spans="2:22" ht="17" thickBot="1">
+    <row r="103" spans="2:21" ht="17" thickBot="1">
       <c r="B103" s="15"/>
-      <c r="C103" s="5"/>
+      <c r="C103" s="78" t="s">
+        <v>231</v>
+      </c>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
       <c r="M103" s="16"/>
-      <c r="O103" s="15"/>
-      <c r="P103" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5"/>
-      <c r="V103" s="16"/>
+      <c r="O103" s="47"/>
+      <c r="P103" s="48"/>
+      <c r="Q103" s="48"/>
+      <c r="R103" s="48"/>
+      <c r="S103" s="48"/>
+      <c r="T103" s="48"/>
+      <c r="U103" s="49"/>
     </row>
-    <row r="104" spans="2:22" ht="17" thickBot="1">
+    <row r="104" spans="2:21" ht="17" thickBot="1">
       <c r="B104" s="15"/>
-      <c r="C104" s="5" t="s">
-        <v>64</v>
+      <c r="C104" s="78" t="s">
+        <v>232</v>
       </c>
       <c r="D104" s="5"/>
-      <c r="E104" s="41"/>
-      <c r="F104" s="42"/>
-      <c r="G104" s="3" t="s">
-        <v>103</v>
-      </c>
+      <c r="E104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
       <c r="M104" s="16"/>
-      <c r="O104" s="15"/>
-      <c r="P104" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="16"/>
+      <c r="O104" s="47"/>
+      <c r="P104" s="48"/>
+      <c r="Q104" s="48"/>
+      <c r="R104" s="48"/>
+      <c r="S104" s="48"/>
+      <c r="T104" s="48"/>
+      <c r="U104" s="49"/>
     </row>
-    <row r="105" spans="2:22" ht="17" thickBot="1">
+    <row r="105" spans="2:21" ht="17" thickBot="1">
       <c r="B105" s="15"/>
-      <c r="C105" s="5"/>
+      <c r="C105" s="78" t="s">
+        <v>233</v>
+      </c>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="2"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -28197,21 +30328,18 @@
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
       <c r="M105" s="16"/>
-      <c r="O105" s="15"/>
-      <c r="P105" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="1"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5"/>
-      <c r="V105" s="16"/>
+      <c r="O105" s="47"/>
+      <c r="P105" s="48"/>
+      <c r="Q105" s="48"/>
+      <c r="R105" s="48"/>
+      <c r="S105" s="48"/>
+      <c r="T105" s="48"/>
+      <c r="U105" s="49"/>
     </row>
-    <row r="106" spans="2:22" ht="17" thickBot="1">
+    <row r="106" spans="2:21" ht="17" thickBot="1">
       <c r="B106" s="15"/>
-      <c r="C106" s="5" t="s">
-        <v>13</v>
+      <c r="C106" s="78" t="s">
+        <v>234</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="1"/>
@@ -28223,21 +30351,18 @@
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
       <c r="M106" s="16"/>
-      <c r="O106" s="15"/>
-      <c r="P106" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="1"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="16"/>
+      <c r="O106" s="47"/>
+      <c r="P106" s="48"/>
+      <c r="Q106" s="48"/>
+      <c r="R106" s="48"/>
+      <c r="S106" s="48"/>
+      <c r="T106" s="48"/>
+      <c r="U106" s="49"/>
     </row>
-    <row r="107" spans="2:22" ht="17" thickBot="1">
+    <row r="107" spans="2:21" ht="17" thickBot="1">
       <c r="B107" s="15"/>
-      <c r="C107" s="5" t="s">
-        <v>14</v>
+      <c r="C107" s="78" t="s">
+        <v>252</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="1"/>
@@ -28249,19 +30374,18 @@
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
       <c r="M107" s="16"/>
-      <c r="O107" s="15"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="16"/>
+      <c r="O107" s="47"/>
+      <c r="P107" s="48"/>
+      <c r="Q107" s="48"/>
+      <c r="R107" s="48"/>
+      <c r="S107" s="48"/>
+      <c r="T107" s="48"/>
+      <c r="U107" s="49"/>
     </row>
-    <row r="108" spans="2:22" ht="17" thickBot="1">
+    <row r="108" spans="2:21" ht="17" thickBot="1">
       <c r="B108" s="15"/>
-      <c r="C108" s="5" t="s">
-        <v>68</v>
+      <c r="C108" s="78" t="s">
+        <v>221</v>
       </c>
       <c r="D108" s="5"/>
       <c r="E108" s="1"/>
@@ -28273,111 +30397,128 @@
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
       <c r="M108" s="16"/>
-      <c r="O108" s="15"/>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
-      <c r="T108" s="5"/>
-      <c r="U108" s="5"/>
-      <c r="V108" s="16"/>
+      <c r="O108" s="47"/>
+      <c r="P108" s="48"/>
+      <c r="Q108" s="48"/>
+      <c r="R108" s="48"/>
+      <c r="S108" s="48"/>
+      <c r="T108" s="48"/>
+      <c r="U108" s="49"/>
     </row>
-    <row r="109" spans="2:22" ht="17" thickBot="1">
+    <row r="109" spans="2:21" ht="17" thickBot="1">
       <c r="B109" s="15"/>
-      <c r="C109" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="D109" s="5"/>
-      <c r="E109" s="1"/>
-      <c r="F109" s="2"/>
+      <c r="C109" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F109" s="79"/>
       <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5"/>
+      <c r="H109" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J109" s="3"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
       <c r="M109" s="16"/>
-      <c r="O109" s="15"/>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5"/>
-      <c r="V109" s="16"/>
+      <c r="O109" s="47"/>
+      <c r="P109" s="48"/>
+      <c r="Q109" s="48"/>
+      <c r="R109" s="48"/>
+      <c r="S109" s="48"/>
+      <c r="T109" s="48"/>
+      <c r="U109" s="49"/>
     </row>
-    <row r="110" spans="2:22">
+    <row r="110" spans="2:21" ht="17" thickBot="1">
       <c r="B110" s="15"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F110" s="3"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
-      <c r="J110" s="5"/>
+      <c r="I110" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J110" s="3"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
       <c r="M110" s="16"/>
-      <c r="O110" s="15"/>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5"/>
-      <c r="V110" s="16"/>
+      <c r="O110" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P110" s="48"/>
+      <c r="Q110" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="R110" s="48"/>
+      <c r="S110" s="48"/>
+      <c r="T110" s="48"/>
+      <c r="U110" s="49"/>
     </row>
-    <row r="111" spans="2:22">
+    <row r="111" spans="2:21" ht="17" thickBot="1">
       <c r="B111" s="15"/>
-      <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
-      <c r="F111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F111" s="3"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
+      <c r="I111" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J111" s="3"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="16"/>
-      <c r="O111" s="15"/>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="5"/>
-      <c r="R111" s="5"/>
-      <c r="S111" s="5"/>
-      <c r="T111" s="5"/>
-      <c r="U111" s="5"/>
-      <c r="V111" s="16"/>
+      <c r="O111" s="47"/>
+      <c r="P111" s="48"/>
+      <c r="Q111" s="48"/>
+      <c r="R111" s="48"/>
+      <c r="S111" s="48"/>
+      <c r="T111" s="48"/>
+      <c r="U111" s="49"/>
     </row>
-    <row r="112" spans="2:22" ht="17" thickBot="1">
+    <row r="112" spans="2:21" ht="17" thickBot="1">
       <c r="B112" s="15"/>
-      <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F112" s="3"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
+      <c r="I112" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J112" s="3"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="16"/>
-      <c r="O112" s="15"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="16"/>
+      <c r="O112" s="47"/>
+      <c r="P112" s="48"/>
+      <c r="Q112" s="48"/>
+      <c r="R112" s="48"/>
+      <c r="S112" s="48"/>
+      <c r="T112" s="48"/>
+      <c r="U112" s="49"/>
     </row>
-    <row r="113" spans="2:22" ht="17" thickBot="1">
+    <row r="113" spans="2:21" ht="17" thickBot="1">
       <c r="B113" s="15"/>
-      <c r="C113" s="3" t="s">
-        <v>63</v>
+      <c r="C113" t="s">
+        <v>243</v>
       </c>
       <c r="D113" s="5"/>
-      <c r="E113" s="5"/>
+      <c r="E113" s="3"/>
       <c r="F113" s="5"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
@@ -28386,84 +30527,59 @@
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="16"/>
-      <c r="O113" s="15"/>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="5"/>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5"/>
-      <c r="V113" s="16"/>
+      <c r="O113" s="47"/>
+      <c r="P113" s="48"/>
+      <c r="Q113" s="48"/>
+      <c r="R113" s="48"/>
+      <c r="S113" s="48"/>
+      <c r="T113" s="48"/>
+      <c r="U113" s="49"/>
     </row>
-    <row r="114" spans="2:22" ht="17" thickBot="1">
+    <row r="114" spans="2:21" ht="17" thickBot="1">
       <c r="B114" s="15"/>
-      <c r="C114" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D114" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F114" s="25"/>
-      <c r="G114" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="H114" s="36"/>
-      <c r="I114" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J114" s="24"/>
+      <c r="C114" t="s">
+        <v>244</v>
+      </c>
+      <c r="D114" s="5"/>
+      <c r="E114" s="3"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="16"/>
-      <c r="O114" s="15"/>
-      <c r="P114" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q114" s="61" t="s">
-        <v>14</v>
-      </c>
-      <c r="R114" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="S114" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="T114" s="62"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="16"/>
+      <c r="O114" s="47"/>
+      <c r="P114" s="48"/>
+      <c r="Q114" s="48"/>
+      <c r="R114" s="48"/>
+      <c r="S114" s="48"/>
+      <c r="T114" s="48"/>
+      <c r="U114" s="49"/>
     </row>
-    <row r="115" spans="2:22" ht="17" thickBot="1">
+    <row r="115" spans="2:21">
       <c r="B115" s="15"/>
-      <c r="C115" s="19"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="19"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="19"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="19"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="16"/>
-      <c r="O115" s="15"/>
-      <c r="P115" s="19"/>
-      <c r="Q115" s="20"/>
-      <c r="R115" s="20"/>
-      <c r="S115" s="20"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V115" s="16"/>
+      <c r="O115" s="47"/>
+      <c r="P115" s="48"/>
+      <c r="Q115" s="48"/>
+      <c r="R115" s="48"/>
+      <c r="S115" s="48"/>
+      <c r="T115" s="48"/>
+      <c r="U115" s="49"/>
     </row>
-    <row r="116" spans="2:22">
+    <row r="116" spans="2:21">
       <c r="B116" s="15"/>
-      <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
@@ -28474,19 +30590,18 @@
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="16"/>
-      <c r="O116" s="15"/>
-      <c r="P116" s="19"/>
-      <c r="Q116" s="20"/>
-      <c r="R116" s="20"/>
-      <c r="S116" s="20"/>
-      <c r="T116" s="21"/>
-      <c r="U116" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V116" s="16"/>
+      <c r="O116" s="47"/>
+      <c r="P116" s="48"/>
+      <c r="Q116" s="48"/>
+      <c r="R116" s="48"/>
+      <c r="S116" s="48"/>
+      <c r="T116" s="48"/>
+      <c r="U116" s="49"/>
     </row>
-    <row r="117" spans="2:22">
-      <c r="B117" s="15"/>
+    <row r="117" spans="2:21" ht="17" thickBot="1">
+      <c r="B117" s="15" t="s">
+        <v>245</v>
+      </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -28498,20 +30613,23 @@
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="16"/>
-      <c r="O117" s="15"/>
-      <c r="P117" s="19"/>
-      <c r="Q117" s="20"/>
-      <c r="R117" s="20"/>
-      <c r="S117" s="20"/>
-      <c r="T117" s="21"/>
-      <c r="U117" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V117" s="16"/>
+      <c r="O117" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="P117" s="48"/>
+      <c r="Q117" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="R117" s="48"/>
+      <c r="S117" s="48"/>
+      <c r="T117" s="48"/>
+      <c r="U117" s="49"/>
     </row>
-    <row r="118" spans="2:22">
+    <row r="118" spans="2:21" ht="17" thickBot="1">
       <c r="B118" s="15"/>
-      <c r="C118" s="5"/>
+      <c r="C118" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -28522,70 +30640,73 @@
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="16"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="20"/>
-      <c r="R118" s="20"/>
-      <c r="S118" s="20"/>
-      <c r="T118" s="21"/>
-      <c r="U118" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V118" s="16"/>
+      <c r="O118" s="47"/>
+      <c r="P118" s="48"/>
+      <c r="Q118" s="48"/>
+      <c r="R118" s="48"/>
+      <c r="S118" s="48"/>
+      <c r="T118" s="48"/>
+      <c r="U118" s="49"/>
     </row>
-    <row r="119" spans="2:22">
+    <row r="119" spans="2:21" ht="17" thickBot="1">
       <c r="B119" s="15"/>
-      <c r="C119" s="5"/>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5"/>
+      <c r="C119" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F119" s="25"/>
+      <c r="G119" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" s="36"/>
+      <c r="I119" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J119" s="24"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="16"/>
-      <c r="O119" s="15"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="20"/>
-      <c r="R119" s="20"/>
-      <c r="S119" s="20"/>
-      <c r="T119" s="21"/>
-      <c r="U119" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V119" s="16"/>
+      <c r="O119" s="47"/>
+      <c r="P119" s="48"/>
+      <c r="Q119" s="48"/>
+      <c r="R119" s="48"/>
+      <c r="S119" s="48"/>
+      <c r="T119" s="48"/>
+      <c r="U119" s="49"/>
     </row>
-    <row r="120" spans="2:22" ht="17" thickBot="1">
+    <row r="120" spans="2:21" ht="17" thickBot="1">
       <c r="B120" s="15"/>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
-      <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="22"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="19"/>
+      <c r="H120" s="21"/>
+      <c r="I120" s="19"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="L120" s="5"/>
       <c r="M120" s="16"/>
-      <c r="O120" s="15"/>
-      <c r="P120" s="19"/>
-      <c r="Q120" s="20"/>
-      <c r="R120" s="20"/>
-      <c r="S120" s="20"/>
-      <c r="T120" s="21"/>
-      <c r="U120" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V120" s="16"/>
+      <c r="O120" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="P120" s="48"/>
+      <c r="Q120" s="48"/>
+      <c r="R120" s="48"/>
+      <c r="S120" s="48"/>
+      <c r="T120" s="48"/>
+      <c r="U120" s="49"/>
     </row>
-    <row r="121" spans="2:22" ht="17" thickBot="1">
+    <row r="121" spans="2:21">
       <c r="B121" s="15"/>
-      <c r="C121" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
@@ -28596,82 +30717,43 @@
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="16"/>
-      <c r="O121" s="15"/>
-      <c r="P121" s="19"/>
-      <c r="Q121" s="20"/>
-      <c r="R121" s="20"/>
-      <c r="S121" s="20"/>
-      <c r="T121" s="21"/>
-      <c r="U121" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V121" s="16"/>
+      <c r="O121" s="50"/>
+      <c r="P121" s="51"/>
+      <c r="Q121" s="51"/>
+      <c r="R121" s="51"/>
+      <c r="S121" s="51"/>
+      <c r="T121" s="51"/>
+      <c r="U121" s="52"/>
     </row>
-    <row r="122" spans="2:22" ht="17" thickBot="1">
+    <row r="122" spans="2:21">
       <c r="B122" s="15"/>
-      <c r="C122" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D122" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E122" s="24"/>
-      <c r="F122" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G122" s="24"/>
-      <c r="H122" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="I122" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="J122" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K122" s="24" t="s">
-        <v>54</v>
-      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="16"/>
-      <c r="O122" s="15"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="20"/>
-      <c r="R122" s="20"/>
-      <c r="S122" s="20"/>
-      <c r="T122" s="21"/>
-      <c r="U122" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V122" s="16"/>
     </row>
-    <row r="123" spans="2:22" ht="17" thickBot="1">
+    <row r="123" spans="2:21">
       <c r="B123" s="15"/>
-      <c r="C123" s="19"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="21"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="21"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="22"/>
-      <c r="J123" s="22"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
       <c r="M123" s="16"/>
-      <c r="O123" s="15"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="20"/>
-      <c r="R123" s="20"/>
-      <c r="S123" s="20"/>
-      <c r="T123" s="21"/>
-      <c r="U123" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V123" s="16"/>
     </row>
-    <row r="124" spans="2:22">
+    <row r="124" spans="2:21">
       <c r="B124" s="15"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -28684,19 +30766,11 @@
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="16"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="19"/>
-      <c r="Q124" s="20"/>
-      <c r="R124" s="20"/>
-      <c r="S124" s="20"/>
-      <c r="T124" s="21"/>
-      <c r="U124" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V124" s="16"/>
     </row>
-    <row r="125" spans="2:22">
-      <c r="B125" s="15"/>
+    <row r="125" spans="2:21" ht="17" thickBot="1">
+      <c r="B125" s="15" t="s">
+        <v>246</v>
+      </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -28708,20 +30782,12 @@
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="16"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="19"/>
-      <c r="Q125" s="20"/>
-      <c r="R125" s="20"/>
-      <c r="S125" s="20"/>
-      <c r="T125" s="21"/>
-      <c r="U125" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V125" s="16"/>
     </row>
-    <row r="126" spans="2:22">
+    <row r="126" spans="2:21" ht="17" thickBot="1">
       <c r="B126" s="15"/>
-      <c r="C126" s="5"/>
+      <c r="C126" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -28732,68 +30798,52 @@
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
       <c r="M126" s="16"/>
-      <c r="O126" s="15"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="20"/>
-      <c r="R126" s="20"/>
-      <c r="S126" s="20"/>
-      <c r="T126" s="21"/>
-      <c r="U126" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V126" s="16"/>
     </row>
-    <row r="127" spans="2:22" ht="17" thickBot="1">
+    <row r="127" spans="2:21" ht="17" thickBot="1">
       <c r="B127" s="15"/>
-      <c r="C127" s="5"/>
-      <c r="D127" s="5"/>
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+      <c r="C127" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E127" s="24"/>
+      <c r="F127" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G127" s="24"/>
+      <c r="H127" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I127" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J127" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K127" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="L127" s="5"/>
       <c r="M127" s="16"/>
-      <c r="O127" s="15"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="20"/>
-      <c r="R127" s="20"/>
-      <c r="S127" s="20"/>
-      <c r="T127" s="21"/>
-      <c r="U127" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V127" s="16"/>
     </row>
-    <row r="128" spans="2:22" ht="17" thickBot="1">
+    <row r="128" spans="2:21" ht="17" thickBot="1">
       <c r="B128" s="15"/>
-      <c r="C128" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D128" s="5"/>
-      <c r="E128" s="5"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="21"/>
+      <c r="F128" s="19"/>
+      <c r="G128" s="21"/>
+      <c r="H128" s="20"/>
+      <c r="I128" s="22"/>
+      <c r="J128" s="22"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="M128" s="16"/>
-      <c r="O128" s="15"/>
-      <c r="P128" s="19"/>
-      <c r="Q128" s="20"/>
-      <c r="R128" s="20"/>
-      <c r="S128" s="20"/>
-      <c r="T128" s="21"/>
-      <c r="U128" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V128" s="16"/>
     </row>
-    <row r="129" spans="2:22" ht="17" thickBot="1">
+    <row r="129" spans="2:22">
       <c r="B129" s="15"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -28806,22 +30856,10 @@
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
       <c r="M129" s="16"/>
-      <c r="O129" s="15"/>
-      <c r="P129" s="19"/>
-      <c r="Q129" s="20"/>
-      <c r="R129" s="20"/>
-      <c r="S129" s="20"/>
-      <c r="T129" s="21"/>
-      <c r="U129" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V129" s="16"/>
     </row>
     <row r="130" spans="2:22" ht="17" thickBot="1">
       <c r="B130" s="15"/>
-      <c r="C130" s="3" t="s">
-        <v>67</v>
-      </c>
+      <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
       <c r="F130" s="5"/>
@@ -28832,20 +30870,12 @@
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
       <c r="M130" s="16"/>
-      <c r="O130" s="15"/>
-      <c r="P130" s="19"/>
-      <c r="Q130" s="20"/>
-      <c r="R130" s="20"/>
-      <c r="S130" s="20"/>
-      <c r="T130" s="21"/>
-      <c r="U130" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="V130" s="16"/>
     </row>
-    <row r="131" spans="2:22">
+    <row r="131" spans="2:22" ht="17" thickBot="1">
       <c r="B131" s="15"/>
-      <c r="C131" s="5"/>
+      <c r="C131" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
@@ -28856,36 +30886,1145 @@
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
       <c r="M131" s="16"/>
-      <c r="O131" s="15"/>
-      <c r="P131" s="5"/>
-      <c r="Q131" s="5"/>
-      <c r="R131" s="5"/>
-      <c r="S131" s="5"/>
-      <c r="T131" s="5"/>
-      <c r="U131" s="5"/>
-      <c r="V131" s="16"/>
     </row>
-    <row r="132" spans="2:22">
-      <c r="B132" s="17"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
-      <c r="L132" s="9"/>
-      <c r="M132" s="18"/>
-      <c r="O132" s="17"/>
-      <c r="P132" s="9"/>
-      <c r="Q132" s="9"/>
-      <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="T132" s="9"/>
-      <c r="U132" s="9"/>
-      <c r="V132" s="18"/>
+    <row r="132" spans="2:22" ht="17" thickBot="1">
+      <c r="B132" s="15"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="5"/>
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+      <c r="G132" s="5"/>
+      <c r="H132" s="5"/>
+      <c r="I132" s="5"/>
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+      <c r="L132" s="5"/>
+      <c r="M132" s="16"/>
+    </row>
+    <row r="133" spans="2:22" ht="17" thickBot="1">
+      <c r="B133" s="15"/>
+      <c r="C133" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+      <c r="L133" s="5"/>
+      <c r="M133" s="16"/>
+    </row>
+    <row r="134" spans="2:22" ht="17" thickBot="1">
+      <c r="B134" s="15"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+      <c r="G134" s="5"/>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+      <c r="L134" s="5"/>
+      <c r="M134" s="16"/>
+    </row>
+    <row r="135" spans="2:22" ht="17" thickBot="1">
+      <c r="B135" s="15"/>
+      <c r="C135" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+      <c r="L135" s="5"/>
+      <c r="M135" s="16"/>
+    </row>
+    <row r="136" spans="2:22">
+      <c r="B136" s="15"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+      <c r="L136" s="5"/>
+      <c r="M136" s="16"/>
+    </row>
+    <row r="137" spans="2:22">
+      <c r="B137" s="17"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="9"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="18"/>
+    </row>
+    <row r="141" spans="2:22" ht="35">
+      <c r="B141" s="12"/>
+      <c r="C141" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="13"/>
+      <c r="K141" s="13"/>
+      <c r="L141" s="13"/>
+      <c r="M141" s="14"/>
+      <c r="O141" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13"/>
+      <c r="R141" s="13"/>
+      <c r="S141" s="13"/>
+      <c r="T141" s="13"/>
+      <c r="U141" s="13"/>
+      <c r="V141" s="14"/>
+    </row>
+    <row r="142" spans="2:22">
+      <c r="B142" s="15"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+      <c r="L142" s="5"/>
+      <c r="M142" s="16"/>
+      <c r="O142" s="15"/>
+      <c r="P142" s="5"/>
+      <c r="Q142" s="5"/>
+      <c r="R142" s="5"/>
+      <c r="S142" s="5"/>
+      <c r="T142" s="5"/>
+      <c r="U142" s="5"/>
+      <c r="V142" s="16"/>
+    </row>
+    <row r="143" spans="2:22">
+      <c r="B143" s="15"/>
+      <c r="C143" s="5"/>
+      <c r="D143" s="5"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+      <c r="L143" s="5"/>
+      <c r="M143" s="16"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="5"/>
+      <c r="Q143" s="5"/>
+      <c r="R143" s="5"/>
+      <c r="S143" s="5"/>
+      <c r="T143" s="5"/>
+      <c r="U143" s="5"/>
+      <c r="V143" s="16"/>
+    </row>
+    <row r="144" spans="2:22" ht="17" thickBot="1">
+      <c r="B144" s="15"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+      <c r="L144" s="5"/>
+      <c r="M144" s="16"/>
+      <c r="O144" s="15"/>
+      <c r="P144" s="5"/>
+      <c r="Q144" s="5"/>
+      <c r="R144" s="5"/>
+      <c r="S144" s="5"/>
+      <c r="T144" s="5"/>
+      <c r="U144" s="5"/>
+      <c r="V144" s="16"/>
+    </row>
+    <row r="145" spans="2:22" ht="17" thickBot="1">
+      <c r="B145" s="15"/>
+      <c r="C145" s="5"/>
+      <c r="D145" s="5"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+      <c r="L145" s="5"/>
+      <c r="M145" s="16"/>
+      <c r="O145" s="15"/>
+      <c r="P145" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q145" s="5"/>
+      <c r="R145" s="1"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="5"/>
+      <c r="U145" s="5"/>
+      <c r="V145" s="16"/>
+    </row>
+    <row r="146" spans="2:22" ht="17" thickBot="1">
+      <c r="B146" s="15"/>
+      <c r="C146" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D146" s="5"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="42"/>
+      <c r="G146" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+      <c r="L146" s="5"/>
+      <c r="M146" s="16"/>
+      <c r="O146" s="15"/>
+      <c r="P146" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q146" s="5"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="5"/>
+      <c r="U146" s="5"/>
+      <c r="V146" s="16"/>
+    </row>
+    <row r="147" spans="2:22" ht="17" thickBot="1">
+      <c r="B147" s="15"/>
+      <c r="C147" s="5"/>
+      <c r="D147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+      <c r="L147" s="5"/>
+      <c r="M147" s="16"/>
+      <c r="O147" s="15"/>
+      <c r="P147" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q147" s="5"/>
+      <c r="R147" s="1"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="5"/>
+      <c r="U147" s="5"/>
+      <c r="V147" s="16"/>
+    </row>
+    <row r="148" spans="2:22" ht="17" thickBot="1">
+      <c r="B148" s="15"/>
+      <c r="C148" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="5"/>
+      <c r="L148" s="5"/>
+      <c r="M148" s="16"/>
+      <c r="O148" s="15"/>
+      <c r="P148" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q148" s="5"/>
+      <c r="R148" s="1"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="5"/>
+      <c r="U148" s="5"/>
+      <c r="V148" s="16"/>
+    </row>
+    <row r="149" spans="2:22" ht="17" thickBot="1">
+      <c r="B149" s="15"/>
+      <c r="C149" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D149" s="5"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="5"/>
+      <c r="L149" s="5"/>
+      <c r="M149" s="16"/>
+      <c r="O149" s="15"/>
+      <c r="P149" s="5"/>
+      <c r="Q149" s="5"/>
+      <c r="R149" s="5"/>
+      <c r="S149" s="5"/>
+      <c r="T149" s="5"/>
+      <c r="U149" s="5"/>
+      <c r="V149" s="16"/>
+    </row>
+    <row r="150" spans="2:22" ht="17" thickBot="1">
+      <c r="B150" s="15"/>
+      <c r="C150" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="D150" s="5"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="5"/>
+      <c r="L150" s="5"/>
+      <c r="M150" s="16"/>
+      <c r="O150" s="15"/>
+      <c r="P150" s="5"/>
+      <c r="Q150" s="5"/>
+      <c r="R150" s="5"/>
+      <c r="S150" s="5"/>
+      <c r="T150" s="5"/>
+      <c r="U150" s="5"/>
+      <c r="V150" s="16"/>
+    </row>
+    <row r="151" spans="2:22" ht="17" thickBot="1">
+      <c r="B151" s="15"/>
+      <c r="C151" s="78" t="s">
+        <v>251</v>
+      </c>
+      <c r="D151" s="5"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="16"/>
+      <c r="O151" s="15"/>
+      <c r="P151" s="5"/>
+      <c r="Q151" s="5"/>
+      <c r="R151" s="5"/>
+      <c r="S151" s="5"/>
+      <c r="T151" s="5"/>
+      <c r="U151" s="5"/>
+      <c r="V151" s="16"/>
+    </row>
+    <row r="152" spans="2:22" ht="17" thickBot="1">
+      <c r="B152" s="15"/>
+      <c r="C152" s="78" t="s">
+        <v>231</v>
+      </c>
+      <c r="D152" s="5"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="16"/>
+      <c r="O152" s="15"/>
+      <c r="P152" s="5"/>
+      <c r="Q152" s="5"/>
+      <c r="R152" s="5"/>
+      <c r="S152" s="5"/>
+      <c r="T152" s="5"/>
+      <c r="U152" s="5"/>
+      <c r="V152" s="16"/>
+    </row>
+    <row r="153" spans="2:22" ht="17" thickBot="1">
+      <c r="B153" s="15"/>
+      <c r="C153" s="78" t="s">
+        <v>232</v>
+      </c>
+      <c r="D153" s="5"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="5"/>
+      <c r="L153" s="5"/>
+      <c r="M153" s="16"/>
+      <c r="O153" s="15"/>
+      <c r="P153" s="5"/>
+      <c r="Q153" s="5"/>
+      <c r="R153" s="5"/>
+      <c r="S153" s="5"/>
+      <c r="T153" s="5"/>
+      <c r="U153" s="5"/>
+      <c r="V153" s="16"/>
+    </row>
+    <row r="154" spans="2:22" ht="17" thickBot="1">
+      <c r="B154" s="15"/>
+      <c r="C154" s="78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D154" s="5"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="5"/>
+      <c r="L154" s="5"/>
+      <c r="M154" s="16"/>
+      <c r="O154" s="15"/>
+      <c r="P154" s="5"/>
+      <c r="Q154" s="5"/>
+      <c r="R154" s="5"/>
+      <c r="S154" s="5"/>
+      <c r="T154" s="5"/>
+      <c r="U154" s="5"/>
+      <c r="V154" s="16"/>
+    </row>
+    <row r="155" spans="2:22" ht="17" thickBot="1">
+      <c r="B155" s="15"/>
+      <c r="C155" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D155" s="5"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="5"/>
+      <c r="L155" s="5"/>
+      <c r="M155" s="16"/>
+      <c r="O155" s="15"/>
+      <c r="P155" s="5"/>
+      <c r="Q155" s="5"/>
+      <c r="R155" s="5"/>
+      <c r="S155" s="5"/>
+      <c r="T155" s="5"/>
+      <c r="U155" s="5"/>
+      <c r="V155" s="16"/>
+    </row>
+    <row r="156" spans="2:22" ht="17" thickBot="1">
+      <c r="B156" s="15"/>
+      <c r="C156" s="78" t="s">
+        <v>252</v>
+      </c>
+      <c r="D156" s="5"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="5"/>
+      <c r="L156" s="5"/>
+      <c r="M156" s="16"/>
+      <c r="O156" s="15"/>
+      <c r="P156" s="60" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q156" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="R156" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="S156" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="T156" s="62"/>
+      <c r="U156" s="5"/>
+      <c r="V156" s="16"/>
+    </row>
+    <row r="157" spans="2:22" ht="17" thickBot="1">
+      <c r="B157" s="15"/>
+      <c r="C157" s="78" t="s">
+        <v>221</v>
+      </c>
+      <c r="D157" s="5"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="5"/>
+      <c r="M157" s="16"/>
+      <c r="O157" s="15"/>
+      <c r="P157" s="19"/>
+      <c r="Q157" s="20"/>
+      <c r="R157" s="20"/>
+      <c r="S157" s="20"/>
+      <c r="T157" s="21"/>
+      <c r="U157" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V157" s="16"/>
+    </row>
+    <row r="158" spans="2:22" ht="17" thickBot="1">
+      <c r="B158" s="15"/>
+      <c r="C158" s="78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F158" s="3"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I158" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J158" s="3"/>
+      <c r="K158" s="5"/>
+      <c r="L158" s="5"/>
+      <c r="M158" s="16"/>
+      <c r="O158" s="15"/>
+      <c r="P158" s="19"/>
+      <c r="Q158" s="20"/>
+      <c r="R158" s="20"/>
+      <c r="S158" s="20"/>
+      <c r="T158" s="21"/>
+      <c r="U158" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V158" s="16"/>
+    </row>
+    <row r="159" spans="2:22" ht="17" thickBot="1">
+      <c r="B159" s="15"/>
+      <c r="D159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F159" s="3"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="J159" s="3"/>
+      <c r="K159" s="5"/>
+      <c r="L159" s="5"/>
+      <c r="M159" s="16"/>
+      <c r="O159" s="15"/>
+      <c r="P159" s="19"/>
+      <c r="Q159" s="20"/>
+      <c r="R159" s="20"/>
+      <c r="S159" s="20"/>
+      <c r="T159" s="21"/>
+      <c r="U159" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V159" s="16"/>
+    </row>
+    <row r="160" spans="2:22" ht="17" thickBot="1">
+      <c r="B160" s="15"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F160" s="3"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="J160" s="3"/>
+      <c r="K160" s="5"/>
+      <c r="L160" s="5"/>
+      <c r="M160" s="16"/>
+      <c r="O160" s="15"/>
+      <c r="P160" s="19"/>
+      <c r="Q160" s="20"/>
+      <c r="R160" s="20"/>
+      <c r="S160" s="20"/>
+      <c r="T160" s="21"/>
+      <c r="U160" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V160" s="16"/>
+    </row>
+    <row r="161" spans="2:22" ht="17" thickBot="1">
+      <c r="B161" s="15"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="J161" s="3"/>
+      <c r="K161" s="5"/>
+      <c r="L161" s="5"/>
+      <c r="M161" s="16"/>
+      <c r="O161" s="15"/>
+      <c r="P161" s="19"/>
+      <c r="Q161" s="20"/>
+      <c r="R161" s="20"/>
+      <c r="S161" s="20"/>
+      <c r="T161" s="21"/>
+      <c r="U161" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V161" s="16"/>
+    </row>
+    <row r="162" spans="2:22" ht="17" thickBot="1">
+      <c r="B162" s="15"/>
+      <c r="C162" t="s">
+        <v>243</v>
+      </c>
+      <c r="D162" s="5"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="5"/>
+      <c r="L162" s="5"/>
+      <c r="M162" s="16"/>
+      <c r="O162" s="15"/>
+      <c r="P162" s="19"/>
+      <c r="Q162" s="20"/>
+      <c r="R162" s="20"/>
+      <c r="S162" s="20"/>
+      <c r="T162" s="21"/>
+      <c r="U162" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V162" s="16"/>
+    </row>
+    <row r="163" spans="2:22" ht="17" thickBot="1">
+      <c r="B163" s="15"/>
+      <c r="C163" t="s">
+        <v>244</v>
+      </c>
+      <c r="D163" s="5"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="5"/>
+      <c r="L163" s="5"/>
+      <c r="M163" s="16"/>
+      <c r="O163" s="15"/>
+      <c r="P163" s="19"/>
+      <c r="Q163" s="20"/>
+      <c r="R163" s="20"/>
+      <c r="S163" s="20"/>
+      <c r="T163" s="21"/>
+      <c r="U163" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V163" s="16"/>
+    </row>
+    <row r="164" spans="2:22">
+      <c r="B164" s="15"/>
+      <c r="C164" s="5"/>
+      <c r="D164" s="5"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="5"/>
+      <c r="L164" s="5"/>
+      <c r="M164" s="16"/>
+      <c r="O164" s="15"/>
+      <c r="P164" s="19"/>
+      <c r="Q164" s="20"/>
+      <c r="R164" s="20"/>
+      <c r="S164" s="20"/>
+      <c r="T164" s="21"/>
+      <c r="U164" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V164" s="16"/>
+    </row>
+    <row r="165" spans="2:22">
+      <c r="B165" s="15"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="5"/>
+      <c r="L165" s="5"/>
+      <c r="M165" s="16"/>
+      <c r="O165" s="15"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="20"/>
+      <c r="R165" s="20"/>
+      <c r="S165" s="20"/>
+      <c r="T165" s="21"/>
+      <c r="U165" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V165" s="16"/>
+    </row>
+    <row r="166" spans="2:22" ht="17" thickBot="1">
+      <c r="B166" s="15"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="5"/>
+      <c r="L166" s="5"/>
+      <c r="M166" s="16"/>
+      <c r="O166" s="15"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="20"/>
+      <c r="R166" s="20"/>
+      <c r="S166" s="20"/>
+      <c r="T166" s="21"/>
+      <c r="U166" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V166" s="16"/>
+    </row>
+    <row r="167" spans="2:22" ht="17" thickBot="1">
+      <c r="B167" s="15"/>
+      <c r="C167" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" s="5"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="5"/>
+      <c r="L167" s="5"/>
+      <c r="M167" s="16"/>
+      <c r="O167" s="15"/>
+      <c r="P167" s="19"/>
+      <c r="Q167" s="20"/>
+      <c r="R167" s="20"/>
+      <c r="S167" s="20"/>
+      <c r="T167" s="21"/>
+      <c r="U167" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V167" s="16"/>
+    </row>
+    <row r="168" spans="2:22" ht="17" thickBot="1">
+      <c r="B168" s="15"/>
+      <c r="C168" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="D168" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="E168" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F168" s="25"/>
+      <c r="G168" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H168" s="36"/>
+      <c r="I168" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="J168" s="24"/>
+      <c r="K168" s="5"/>
+      <c r="L168" s="5"/>
+      <c r="M168" s="16"/>
+      <c r="O168" s="15"/>
+      <c r="P168" s="19"/>
+      <c r="Q168" s="20"/>
+      <c r="R168" s="20"/>
+      <c r="S168" s="20"/>
+      <c r="T168" s="21"/>
+      <c r="U168" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V168" s="16"/>
+    </row>
+    <row r="169" spans="2:22" ht="17" thickBot="1">
+      <c r="B169" s="15"/>
+      <c r="C169" s="19"/>
+      <c r="D169" s="22"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="21"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="21"/>
+      <c r="K169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L169" s="5"/>
+      <c r="M169" s="16"/>
+      <c r="O169" s="15"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="20"/>
+      <c r="R169" s="20"/>
+      <c r="S169" s="20"/>
+      <c r="T169" s="21"/>
+      <c r="U169" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V169" s="16"/>
+    </row>
+    <row r="170" spans="2:22">
+      <c r="B170" s="15"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="5"/>
+      <c r="L170" s="5"/>
+      <c r="M170" s="16"/>
+      <c r="O170" s="15"/>
+      <c r="P170" s="19"/>
+      <c r="Q170" s="20"/>
+      <c r="R170" s="20"/>
+      <c r="S170" s="20"/>
+      <c r="T170" s="21"/>
+      <c r="U170" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V170" s="16"/>
+    </row>
+    <row r="171" spans="2:22">
+      <c r="B171" s="15"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="5"/>
+      <c r="L171" s="5"/>
+      <c r="M171" s="16"/>
+      <c r="O171" s="15"/>
+      <c r="P171" s="19"/>
+      <c r="Q171" s="20"/>
+      <c r="R171" s="20"/>
+      <c r="S171" s="20"/>
+      <c r="T171" s="21"/>
+      <c r="U171" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V171" s="16"/>
+    </row>
+    <row r="172" spans="2:22">
+      <c r="B172" s="15"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="5"/>
+      <c r="L172" s="5"/>
+      <c r="M172" s="16"/>
+      <c r="O172" s="15"/>
+      <c r="P172" s="19"/>
+      <c r="Q172" s="20"/>
+      <c r="R172" s="20"/>
+      <c r="S172" s="20"/>
+      <c r="T172" s="21"/>
+      <c r="U172" s="63" t="s">
+        <v>101</v>
+      </c>
+      <c r="V172" s="16"/>
+    </row>
+    <row r="173" spans="2:22">
+      <c r="B173" s="15"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="5"/>
+      <c r="L173" s="5"/>
+      <c r="M173" s="16"/>
+      <c r="O173" s="15"/>
+      <c r="P173" s="5"/>
+      <c r="Q173" s="5"/>
+      <c r="R173" s="5"/>
+      <c r="S173" s="5"/>
+      <c r="T173" s="5"/>
+      <c r="U173" s="5"/>
+      <c r="V173" s="16"/>
+    </row>
+    <row r="174" spans="2:22" ht="17" thickBot="1">
+      <c r="B174" s="15"/>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="5"/>
+      <c r="L174" s="5"/>
+      <c r="M174" s="16"/>
+      <c r="O174" s="17"/>
+      <c r="P174" s="9"/>
+      <c r="Q174" s="9"/>
+      <c r="R174" s="9"/>
+      <c r="S174" s="9"/>
+      <c r="T174" s="9"/>
+      <c r="U174" s="9"/>
+      <c r="V174" s="18"/>
+    </row>
+    <row r="175" spans="2:22" ht="17" thickBot="1">
+      <c r="B175" s="15"/>
+      <c r="C175" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="5"/>
+      <c r="M175" s="16"/>
+    </row>
+    <row r="176" spans="2:22" ht="17" thickBot="1">
+      <c r="B176" s="15"/>
+      <c r="C176" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D176" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E176" s="24"/>
+      <c r="F176" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" s="24"/>
+      <c r="H176" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I176" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J176" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K176" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="L176" s="5"/>
+      <c r="M176" s="16"/>
+    </row>
+    <row r="177" spans="2:13" ht="17" thickBot="1">
+      <c r="B177" s="15"/>
+      <c r="C177" s="19"/>
+      <c r="D177" s="19"/>
+      <c r="E177" s="21"/>
+      <c r="F177" s="19"/>
+      <c r="G177" s="21"/>
+      <c r="H177" s="20"/>
+      <c r="I177" s="22"/>
+      <c r="J177" s="22"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M177" s="16"/>
+    </row>
+    <row r="178" spans="2:13">
+      <c r="B178" s="15"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="5"/>
+      <c r="L178" s="5"/>
+      <c r="M178" s="16"/>
+    </row>
+    <row r="179" spans="2:13" ht="17" thickBot="1">
+      <c r="B179" s="15"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="5"/>
+      <c r="L179" s="5"/>
+      <c r="M179" s="16"/>
+    </row>
+    <row r="180" spans="2:13" ht="17" thickBot="1">
+      <c r="B180" s="15"/>
+      <c r="C180" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="5"/>
+      <c r="L180" s="5"/>
+      <c r="M180" s="16"/>
+    </row>
+    <row r="181" spans="2:13" ht="17" thickBot="1">
+      <c r="B181" s="15"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="5"/>
+      <c r="L181" s="5"/>
+      <c r="M181" s="16"/>
+    </row>
+    <row r="182" spans="2:13" ht="17" thickBot="1">
+      <c r="B182" s="15"/>
+      <c r="C182" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="5"/>
+      <c r="L182" s="5"/>
+      <c r="M182" s="16"/>
+    </row>
+    <row r="183" spans="2:13" ht="17" thickBot="1">
+      <c r="B183" s="15"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="5"/>
+      <c r="L183" s="5"/>
+      <c r="M183" s="16"/>
+    </row>
+    <row r="184" spans="2:13" ht="17" thickBot="1">
+      <c r="B184" s="15"/>
+      <c r="C184" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="5"/>
+      <c r="L184" s="5"/>
+      <c r="M184" s="16"/>
+    </row>
+    <row r="185" spans="2:13">
+      <c r="B185" s="15"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="16"/>
+    </row>
+    <row r="186" spans="2:13">
+      <c r="B186" s="17"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="9"/>
+      <c r="K186" s="9"/>
+      <c r="L186" s="9"/>
+      <c r="M186" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -28914,167 +32053,167 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87D0A0-A6C2-F945-B5D0-A9EFA56956D2}">
   <dimension ref="B5:O96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0"/>
+    <sheetView zoomScale="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="5" spans="2:13">
       <c r="B5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" t="s">
         <v>148</v>
       </c>
-      <c r="I5" t="s">
+      <c r="M5" t="s">
         <v>149</v>
-      </c>
-      <c r="M5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="E14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="H15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="5:15">
       <c r="E38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="5:15">
       <c r="H40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="5:15">
       <c r="L41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="5:15">
       <c r="O42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="5:15">
       <c r="L45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="5:15">
       <c r="K47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51" spans="4:8">
       <c r="H51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="4:8">
       <c r="H54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="4:8">
       <c r="H55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="4:8">
       <c r="D57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="B66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="2:3">
       <c r="B67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="B76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="C77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="2:3">
       <c r="C78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="C79" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="82" spans="2:4">
       <c r="D82" s="64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="2:4">
       <c r="D83" s="64" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="2:4">
       <c r="D86" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="2:4">
       <c r="D87" s="66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="D88" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="2:4">
       <c r="C93" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="2:4">
       <c r="C94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="2:4">
       <c r="C96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1275" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2A635C35-5F2D-764E-B60C-AF59CA774BA8}"/>
+  <xr:revisionPtr revIDLastSave="1295" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2193D30E-4AA9-4E4E-B13A-00FBABE5CE03}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="1720" windowWidth="29000" windowHeight="14760" activeTab="4" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="10960" yWindow="560" windowWidth="29000" windowHeight="14760" activeTab="4" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="260">
   <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1543,29 +1543,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线 (正文)"/>
-        <charset val="134"/>
-      </rPr>
-      <t>作業</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="4"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>開始年月</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
@@ -1678,6 +1655,57 @@
   </si>
   <si>
     <t>最終学位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线 (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>作業</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="4"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>開始年月日</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担当職種</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>読み</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本語レベル</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>書き</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>英検点数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6710,6 +6738,206 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>130000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590000</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="矩形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{625D1EDB-F228-8349-8C22-2D1F4C016543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6150000" y="21600000"/>
+          <a:ext cx="2250000" cy="750000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>您可能之前忙别的行业了。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>您是有社会经验的。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>也个经验也值钱</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800000</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>105000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>210000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直线连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DE4FAA-CCAA-914C-AB8C-585646AF62E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1870000" y="24215000"/>
+          <a:ext cx="6770000" cy="945000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>790000</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>120000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>550000</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>210000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3CA04F0-5C6B-724D-8519-8EF2EF1F915D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8600000" y="23790000"/>
+          <a:ext cx="2250000" cy="750000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>关键字：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>javascript </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>动态追加行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11928,7 +12156,7 @@
   <dimension ref="A3:XFD67"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="86" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28503,7 +28731,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="32"/>
       <c r="L46" s="74" t="s">
-        <v>29</v>
+        <v>253</v>
       </c>
       <c r="M46" s="75"/>
       <c r="N46" s="19"/>
@@ -28549,7 +28777,7 @@
       <c r="H48" s="21"/>
       <c r="I48" s="32"/>
       <c r="L48" s="71" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="72" t="s">
@@ -28577,7 +28805,7 @@
       <c r="H49" s="21"/>
       <c r="I49" s="32"/>
       <c r="L49" s="74" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M49" s="75"/>
       <c r="N49" s="72" t="s">
@@ -28605,7 +28833,7 @@
       <c r="H50" s="21"/>
       <c r="I50" s="32"/>
       <c r="L50" s="74" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M50" s="75"/>
       <c r="N50" s="72" t="s">
@@ -28820,8 +29048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
   <dimension ref="B2:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScale="127" workbookViewId="0">
-      <selection activeCell="B156" sqref="B156"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="127" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -28931,12 +29159,12 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="17" thickBot="1">
       <c r="D23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="2:10" ht="23">
@@ -29085,7 +29313,7 @@
     <row r="31" spans="2:10">
       <c r="B31" s="8"/>
       <c r="C31" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>181</v>
@@ -29624,7 +29852,7 @@
     <row r="67" spans="2:21" ht="17" thickBot="1">
       <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="1"/>
@@ -30212,7 +30440,7 @@
     <row r="101" spans="2:21" ht="17" thickBot="1">
       <c r="B101" s="15"/>
       <c r="C101" s="77" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="D101" s="5"/>
       <c r="E101" s="1"/>
@@ -30241,7 +30469,7 @@
     <row r="102" spans="2:21" ht="17" thickBot="1">
       <c r="B102" s="15"/>
       <c r="C102" s="78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D102" s="5"/>
       <c r="E102" s="1"/>
@@ -30270,7 +30498,7 @@
     <row r="103" spans="2:21" ht="17" thickBot="1">
       <c r="B103" s="15"/>
       <c r="C103" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D103" s="5"/>
       <c r="E103" s="1"/>
@@ -30293,7 +30521,7 @@
     <row r="104" spans="2:21" ht="17" thickBot="1">
       <c r="B104" s="15"/>
       <c r="C104" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="1"/>
@@ -30316,7 +30544,7 @@
     <row r="105" spans="2:21" ht="17" thickBot="1">
       <c r="B105" s="15"/>
       <c r="C105" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="1"/>
@@ -30339,7 +30567,7 @@
     <row r="106" spans="2:21" ht="17" thickBot="1">
       <c r="B106" s="15"/>
       <c r="C106" s="78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="1"/>
@@ -30362,7 +30590,7 @@
     <row r="107" spans="2:21" ht="17" thickBot="1">
       <c r="B107" s="15"/>
       <c r="C107" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D107" s="5"/>
       <c r="E107" s="1"/>
@@ -30408,21 +30636,21 @@
     <row r="109" spans="2:21" ht="17" thickBot="1">
       <c r="B109" s="15"/>
       <c r="C109" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="E109" s="5" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="F109" s="79"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J109" s="3"/>
       <c r="K109" s="5"/>
@@ -30440,13 +30668,13 @@
       <c r="B110" s="15"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J110" s="3"/>
       <c r="K110" s="5"/>
@@ -30468,13 +30696,13 @@
       <c r="B111" s="15"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J111" s="3"/>
       <c r="K111" s="5"/>
@@ -30492,13 +30720,13 @@
       <c r="B112" s="15"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="J112" s="3"/>
       <c r="K112" s="5"/>
@@ -30515,7 +30743,7 @@
     <row r="113" spans="2:21" ht="17" thickBot="1">
       <c r="B113" s="15"/>
       <c r="C113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="3"/>
@@ -30538,7 +30766,7 @@
     <row r="114" spans="2:21" ht="17" thickBot="1">
       <c r="B114" s="15"/>
       <c r="C114" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="3"/>
@@ -30600,7 +30828,7 @@
     </row>
     <row r="117" spans="2:21" ht="17" thickBot="1">
       <c r="B117" s="15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -30769,7 +30997,7 @@
     </row>
     <row r="125" spans="2:21" ht="17" thickBot="1">
       <c r="B125" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -30933,7 +31161,7 @@
     <row r="135" spans="2:22" ht="17" thickBot="1">
       <c r="B135" s="15"/>
       <c r="C135" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -31195,7 +31423,7 @@
     <row r="150" spans="2:22" ht="17" thickBot="1">
       <c r="B150" s="15"/>
       <c r="C150" s="77" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D150" s="5"/>
       <c r="E150" s="1"/>
@@ -31219,7 +31447,7 @@
     <row r="151" spans="2:22" ht="17" thickBot="1">
       <c r="B151" s="15"/>
       <c r="C151" s="78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D151" s="5"/>
       <c r="E151" s="1"/>
@@ -31243,7 +31471,7 @@
     <row r="152" spans="2:22" ht="17" thickBot="1">
       <c r="B152" s="15"/>
       <c r="C152" s="78" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D152" s="5"/>
       <c r="E152" s="1"/>
@@ -31267,7 +31495,7 @@
     <row r="153" spans="2:22" ht="17" thickBot="1">
       <c r="B153" s="15"/>
       <c r="C153" s="78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D153" s="5"/>
       <c r="E153" s="1"/>
@@ -31291,7 +31519,7 @@
     <row r="154" spans="2:22" ht="17" thickBot="1">
       <c r="B154" s="15"/>
       <c r="C154" s="78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D154" s="5"/>
       <c r="E154" s="1"/>
@@ -31315,7 +31543,7 @@
     <row r="155" spans="2:22" ht="17" thickBot="1">
       <c r="B155" s="15"/>
       <c r="C155" s="78" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D155" s="5"/>
       <c r="E155" s="1"/>
@@ -31339,7 +31567,7 @@
     <row r="156" spans="2:22" ht="17" thickBot="1">
       <c r="B156" s="15"/>
       <c r="C156" s="78" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D156" s="5"/>
       <c r="E156" s="1"/>
@@ -31397,21 +31625,21 @@
     <row r="158" spans="2:22" ht="17" thickBot="1">
       <c r="B158" s="15"/>
       <c r="C158" s="78" t="s">
+        <v>234</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="E158" s="5" t="s">
         <v>236</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>237</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J158" s="3"/>
       <c r="K158" s="5"/>
@@ -31432,13 +31660,13 @@
       <c r="B159" s="15"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J159" s="3"/>
       <c r="K159" s="5"/>
@@ -31459,13 +31687,13 @@
       <c r="B160" s="15"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J160" s="3"/>
       <c r="K160" s="5"/>
@@ -31486,13 +31714,13 @@
       <c r="B161" s="15"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J161" s="3"/>
       <c r="K161" s="5"/>
@@ -31512,7 +31740,7 @@
     <row r="162" spans="2:22" ht="17" thickBot="1">
       <c r="B162" s="15"/>
       <c r="C162" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D162" s="5"/>
       <c r="E162" s="3"/>
@@ -31538,7 +31766,7 @@
     <row r="163" spans="2:22" ht="17" thickBot="1">
       <c r="B163" s="15"/>
       <c r="C163" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D163" s="5"/>
       <c r="E163" s="3"/>
@@ -31985,7 +32213,7 @@
     <row r="184" spans="2:13" ht="17" thickBot="1">
       <c r="B184" s="15"/>
       <c r="C184" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1295" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{2193D30E-4AA9-4E4E-B13A-00FBABE5CE03}"/>
+  <xr:revisionPtr revIDLastSave="1302" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{94C97214-05C4-5745-A6D1-C5C4442006F8}"/>
   <bookViews>
-    <workbookView xWindow="10960" yWindow="560" windowWidth="29000" windowHeight="14760" activeTab="4" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="29000" windowHeight="13380" activeTab="4" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="261">
   <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1706,6 +1706,10 @@
   </si>
   <si>
     <t>英検点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作業開始年月日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -12156,7 +12160,7 @@
   <dimension ref="A3:XFD67"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="86" workbookViewId="0">
-      <selection activeCell="N52" sqref="N52"/>
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29048,14 +29052,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
   <dimension ref="B2:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="127" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="127" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="26">
@@ -31047,10 +31053,10 @@
         <v>30</v>
       </c>
       <c r="J127" s="26" t="s">
-        <v>31</v>
+        <v>260</v>
       </c>
       <c r="K127" s="24" t="s">
-        <v>54</v>
+        <v>228</v>
       </c>
       <c r="L127" s="5"/>
       <c r="M127" s="16"/>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1302" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{94C97214-05C4-5745-A6D1-C5C4442006F8}"/>
+  <xr:revisionPtr revIDLastSave="1831" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3244CEF8-FDD6-3548-B165-43D857227FA8}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="29000" windowHeight="13380" activeTab="4" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="1400" yWindow="460" windowWidth="29000" windowHeight="18200" activeTab="2" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="参照画面的跳转式样" sheetId="5" r:id="rId6"/>
     <sheet name="整体架构图" sheetId="6" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">概要设计!$A$1:$AJ$130</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="274">
   <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1712,12 +1715,64 @@
     <t>作業開始年月日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>处理流程（以案件为例）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆处理概要（技术者）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先把【案件信息】登陆了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于您不只有一条案件经验，所以，会返回一堆的案件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一堆的案件ID该怎么抓在手里呢。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里需要讲一下【数据结构】知识点了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里需要讲一下【ArrayList】知识点了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再把【技术信息】登陆了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上面的处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后把【技术者信息】登陆了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同个别案件的登陆处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个别案件是如何登陆的呢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆处理流程（案件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1913,6 +1968,14 @@
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF002060"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2306,7 +2369,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2559,6 +2622,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2582,6 +2648,7026 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A40EE2-6E06-4E4F-833F-B14785CFCE61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1244600" y="10972800"/>
+          <a:ext cx="3378200" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$("#search_btn").click(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>function</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ED9BA0F-A929-B548-ADC9-6197B9A78F01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="11772900"/>
+          <a:ext cx="4368800" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> List&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>search(@RequestBody </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>bean) </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC261888-4642-CF49-A588-787E8191E827}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="12852400"/>
+          <a:ext cx="5016500" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> List&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean bean)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF378E1-2E1E-1145-90E3-9B7FFE063F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12255500" y="15748000"/>
+          <a:ext cx="5041900" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Map&lt;String,List&lt;String&gt;&gt; get</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中間結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件検索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean bean)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0924DA6-0735-2749-847F-71B4FD975911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="17665700"/>
+          <a:ext cx="4991100" cy="939800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>protected</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> List&lt;String&gt; get</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最終結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中間結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Map&lt;String,List&lt;String&gt;&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>中間結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>List)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F2616F9-AF6E-BA4C-9E73-E500CB016B01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12179300" y="19532600"/>
+          <a:ext cx="4991100" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> List&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>取得検索結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最終結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(List&lt;String&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最終結果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>idList)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="矩形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CAF9BAB-8A97-8744-995E-DD1751AE3D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24396700" y="13855700"/>
+          <a:ext cx="3632200" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>void</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>情報読</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>込</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>み</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>String[] fileName)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="圆角矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1D26725-9D2E-8E4B-AB42-94464B886A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23876000" y="9753600"/>
+          <a:ext cx="3543300" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数据中心</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1ED017C-5594-AE42-82FE-91BA15B7289E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="889000" y="9702800"/>
+          <a:ext cx="3543300" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600"/>
+            <a:t>JSP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="圆角矩形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A8881CA-C522-3547-98E8-AA21BAA7CD61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5651500" y="9740900"/>
+          <a:ext cx="4787900" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>）跑前台的</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{691F6AC7-CEB6-ED4C-BFD8-8239F69875C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11455400" y="9740900"/>
+          <a:ext cx="4787900" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>Service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>）后台处理</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF00A527-3D4E-7643-BC8A-6495546AB1CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168400" y="12814300"/>
+          <a:ext cx="3276600" cy="2044700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>当用户点击</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>检索</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>按钮时，就等于有人在外面敲门了。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参考</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Jquery</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>知识点</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A7CEF9C-7AF6-C44D-990C-0978DCAEF26B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032500" y="13855700"/>
+          <a:ext cx="3886200" cy="2641600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>前台等待的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>成簇会被唤起，</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>被谁唤起呢，是被</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SpringMVC</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>这个框架唤起的</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>起来起来！干活了！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参考巨人的脚趾甲系列知识点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B87BC771-070E-2B4A-B9B1-E5540EC39541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17132300" y="11226800"/>
+          <a:ext cx="3276600" cy="1612900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后台的人会被前台的人唤起。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>师傅，有人想要办检索这个事情</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（被唤起的当然是检索这个师傅）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="圆角矩形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C5B75C7-D47F-E24D-BCA6-5DFDD3A027DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18376900" y="14643100"/>
+          <a:ext cx="4406900" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>怎么检索的呢。很简单。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>先搞一个海选</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>就是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>本着宁滥勿缺的精神，把每个满足条件的数据都找到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（就是只要您满足一个条件，就进入候选名单）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="圆角矩形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80E86954-E4C4-0749-BB44-66BE6EE095E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24574500" y="15100300"/>
+          <a:ext cx="3848100" cy="2819400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数据中心会一次性把所有数据都调取出来。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以参照文件处理的知识点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ファイルを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>する</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>テキストファイルの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>入出力</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="圆角矩形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7BF024-096F-0242-BF3A-82BCC3D6373A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18300700" y="16814800"/>
+          <a:ext cx="4406900" cy="2667000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>然后呢。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>再进行总决赛</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>------</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>评委打分，观众参与。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所有条件都满足，才能进决赛。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为什么标红。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参考巨人的脚趾甲系列知识点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="圆角矩形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46EBC5DA-4C70-F240-ACFC-25F268A0DC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18249900" y="19837400"/>
+          <a:ext cx="4406900" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>最后呢。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>开车去接本人</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>送回前台</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="圆角矩形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53F1FF77-F09B-A445-9CE1-EA6B12BFDCD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23533100" y="10553700"/>
+          <a:ext cx="5397500" cy="10960100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="圆角矩形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DABB4C95-5DA2-F941-914F-E9DEADA47C57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11125200" y="10515600"/>
+          <a:ext cx="11887200" cy="11061700"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3177"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="圆角矩形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632BF531-1656-4941-92AC-39F68068D8F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5384800" y="10896600"/>
+          <a:ext cx="5397500" cy="11836400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="圆角矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A85161-0DAF-B945-82A2-335B039BDC32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="749300" y="10464800"/>
+          <a:ext cx="4343400" cy="10960100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="肘形连接符 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53A31855-F3AA-DC4A-A96A-E5F52E9CB795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4251325" y="10518775"/>
+          <a:ext cx="488950" cy="3124200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="肘形连接符 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A51FA6-2F28-2A47-9B22-887F7F9700BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9693275" y="11426825"/>
+          <a:ext cx="438150" cy="3340100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="肘形连接符 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDBCB64A-1511-CB46-86EB-B74610C57586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10775950" y="14738350"/>
+          <a:ext cx="2451100" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="肘形连接符 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB1D970-629F-7146-B846-3BADB745BE66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11734800" y="14351000"/>
+          <a:ext cx="12661900" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="肘形连接符 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04AA2A3-73D2-6244-B617-FA9B4D5577DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9810750" y="15716250"/>
+          <a:ext cx="4356100" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="肘形连接符 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C37B22C-9133-D840-BCA6-9F5453D33DB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8826500" y="16713200"/>
+          <a:ext cx="6273800" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直线连接符 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA1B7C6-484C-5A4D-A8E0-D65978615962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17297400" y="15963900"/>
+          <a:ext cx="1066800" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直线连接符 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{379B7FED-BBE9-6A42-9104-BC2048093832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17221200" y="17907000"/>
+          <a:ext cx="1054100" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="直线连接符 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31897F85-8206-5B49-A0B6-9497E201DC22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="23" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17170400" y="20066000"/>
+          <a:ext cx="1079500" cy="482600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="直线连接符 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA58EAC6-1816-8442-A6C4-6AA50E60CACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16052800" y="12033250"/>
+          <a:ext cx="1079500" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直线连接符 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E520C0-DB7F-CB4F-8071-BB2F7540DAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="6642100" y="12890500"/>
+          <a:ext cx="685800" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直线连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0202CA-E8F0-814C-83C7-4D3A47959425}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1524000" y="11823700"/>
+          <a:ext cx="685800" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>279401</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>148167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="圆角矩形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C7A76B-FE7C-524A-B365-A61558D3CF80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057901" y="20468167"/>
+          <a:ext cx="3873500" cy="1799167"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>前台会把后台检索到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>总冠军</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>打包发给</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>JSP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>139701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>486834</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>80434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="圆角矩形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC736886-2C64-804C-8562-247EE363A1E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="931334" y="20459701"/>
+          <a:ext cx="3683000" cy="1422400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>看到明细一览里面的结果了吗。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>那是各种</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TV</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>搞出来的超超男女。。。。。。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>594784</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>35984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>804334</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="下箭头 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0319A050-DF9D-B040-9168-9332AF91C4EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4623859" y="20666076"/>
+          <a:ext cx="1231900" cy="1035050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103718</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>63499</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>6351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="下箭头 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C59725-73D8-9047-BA03-46B2D8989191}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="13507509" y="17726027"/>
+          <a:ext cx="1219200" cy="8214781"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22222"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="圆角矩形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5465C9DE-A4FD-D64F-B0AE-CA22CAF616CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965200" y="14160500"/>
+          <a:ext cx="2679700" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="圆角矩形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4B7F4DC-CCBB-9148-9351-0B8786318A7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5803900" y="15582900"/>
+          <a:ext cx="4216400" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="圆角矩形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CD3ACA-89AB-FA45-8ACD-8DAACDB5AE9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18084800" y="18656300"/>
+          <a:ext cx="4216400" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="圆角矩形 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A61D414-FDF4-C048-80B5-E69F5DB6A1EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24282400" y="16002000"/>
+          <a:ext cx="4368800" cy="1384300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="圆角矩形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D29C54BA-61AF-C942-8F40-9EFE6932C03D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24523700" y="18122900"/>
+          <a:ext cx="3797300" cy="1981200"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>就是把数据从文件读到内存里。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>那数据是如何存在内存里的呢。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>参考</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コレクション</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HashMap)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="002060"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="圆角矩形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A53C52-C422-1F43-A2C1-32AD594DF0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24333200" y="19100800"/>
+          <a:ext cx="4216400" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="圆角矩形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA2425FB-ED41-6B47-B13B-C7069E0EF1D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="23698200"/>
+          <a:ext cx="5892800" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>292100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="圆角矩形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8FBECF-8B7D-7B4F-909F-D02B4F4BC8A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1549400" y="24549100"/>
+          <a:ext cx="5867400" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="圆角矩形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA63C267-EB09-ED4B-8378-E6446A2900A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="28409900"/>
+          <a:ext cx="5867400" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="63500">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="圆角矩形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3FE90C-B2D6-B14E-9960-1A00984B974F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10837334" y="23622000"/>
+          <a:ext cx="2053166" cy="732367"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="3600"/>
+            <a:t>JSP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119455</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>97240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314356</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>150891</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矩形 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD27684C-981A-FC49-AD3B-2050E31FD223}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10908168" y="23585953"/>
+          <a:ext cx="1854703" cy="996720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>$("#save_btn").click(function()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>807059</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>295704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>53358</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>43591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矩形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1268D955-20CB-CA43-8E7D-50E26BEA47F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19064881" y="23784417"/>
+          <a:ext cx="3395804" cy="1219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public String </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>追加案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_by</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean bean)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533357</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>89277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88019</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="圆角矩形 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601AE18A-2854-7D42-9D49-4B5C6A845558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13811773" y="22496604"/>
+          <a:ext cx="3704167" cy="703655"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Controller</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>505274</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>157386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>581474</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>93887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="矩形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E66D71A-1920-524D-A625-9077E451E5E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19592997" y="25519663"/>
+          <a:ext cx="3395804" cy="1219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>private void </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>追加案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>_byFile_db_</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>db file_db2, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean bean)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>520783</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>89277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>75445</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>38477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="圆角矩形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB38C974-E6AD-0042-BEA3-EF2E01E076EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18778605" y="22496604"/>
+          <a:ext cx="3704167" cy="703655"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2800"/>
+            <a:t>Service</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2800"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>402374</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>188615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>732574</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>226087</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3E51B4-7519-1245-920B-145A6410CDBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24469503" y="23350397"/>
+          <a:ext cx="3649804" cy="980541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public int </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>採番</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(String sPath)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>389802</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>150890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>720002</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>200936</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="矩形 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FD3D18C-F04B-A04A-896A-AD11C8684DEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24456931" y="26066435"/>
+          <a:ext cx="3649804" cy="980541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public void </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>文件書込</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(String path,String </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>書込内容 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1600" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>364653</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>12574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>610354</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>174908</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="圆角矩形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2902E193-E8C7-8A48-8C7C-7B2645EEF60D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23601881" y="22419901"/>
+          <a:ext cx="3565305" cy="715601"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>数据中心</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>36590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>448901</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="圆角矩形 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F5C82DF-50FF-0848-A41F-7AAC380617AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23237228" y="23198372"/>
+          <a:ext cx="5428307" cy="5458361"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>176039</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>36590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>21377</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="圆角矩形 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD30E663-8714-8C44-B4F9-BF96475B4649}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18433861" y="23198372"/>
+          <a:ext cx="4824744" cy="5458361"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314356</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>74313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>159694</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>37723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="圆角矩形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70736CF3-C950-6444-99AB-8C3E9E2F73EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13592772" y="23236095"/>
+          <a:ext cx="4824744" cy="5458361"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>113168</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>112036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>314356</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>75446</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="圆角矩形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD27B354-3689-9842-886D-1639D35162EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10071980" y="23273818"/>
+          <a:ext cx="3520792" cy="5458361"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 9138"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="79375">
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266366</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>232833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342566</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>12574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="矩形 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98057310-E7B6-0449-9744-9AAEF69FA69B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14374683" y="23721546"/>
+          <a:ext cx="3395804" cy="1452117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>public String </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>save(@ModelAttribute("fbean") </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>案件</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Bean bean, Model model)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>216905</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>15823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266365</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>150891</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="102" name="肘形连接符 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F16B2F-B6EE-AF49-8B21-6C4DB8941C6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="80" idx="2"/>
+          <a:endCxn id="101" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="13037567" y="23245557"/>
+          <a:ext cx="135068" cy="2539163"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -169248"/>
+            <a:gd name="adj2" fmla="val 60833"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304466</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>289104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>807059</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>12574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="肘形连接符 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBD18E7-C0E0-5547-9048-55BD46E695D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="101" idx="2"/>
+          <a:endCxn id="81" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="17178879" y="23287661"/>
+          <a:ext cx="779708" cy="2992296"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -29319"/>
+            <a:gd name="adj2" fmla="val 71647"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>100595</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>25148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>505275</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>12467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="肘形连接符 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE06C59-32E8-7F49-A122-A71E27F84A65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="84" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="18818582" y="25354785"/>
+          <a:ext cx="1144151" cy="404680"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>543374</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>25024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>402374</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>93887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="115" name="肘形连接符 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D914BC5B-0564-2442-AE78-B3A9AE733ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="86" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="21431166" y="23700401"/>
+          <a:ext cx="2898070" cy="3178604"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21338"/>
+            <a:gd name="adj2" fmla="val 76708"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>543374</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>113043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>389802</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>93887</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="肘形连接符 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81E3F73-EDEB-4248-A740-DC5E71E7C809}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="2"/>
+          <a:endCxn id="87" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="22782899" y="25064706"/>
+          <a:ext cx="182032" cy="3166032"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -346629"/>
+            <a:gd name="adj2" fmla="val 76814"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="92075">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>804754</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>75446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>565843</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>37722</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="圆角矩形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3D0B94D-3C48-8B46-881B-FF3C1BB470DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14083170" y="26192179"/>
+          <a:ext cx="3910594" cy="2175345"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>为什么要用两个函数来处理呢。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>因为登陆的时候可能要</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>CHK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>的时候才登陆的。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（有残疾的是不是能报名、组委会要考察的）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238911</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>113169</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>792178</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>75445</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直线连接符 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179C2A65-9882-CA43-AC48-85ED1BE07B5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="17666832" y="24871882"/>
+          <a:ext cx="1383168" cy="1320296"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>276635</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>37724</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>138316</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="圆角矩形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B6DCAA-B787-7F44-B415-79771760A81B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24343764" y="24431782"/>
+          <a:ext cx="3910594" cy="1068811"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>每条信息都是用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>管理的。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>所以要先发个号牌。就叫采番。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>176041</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>88022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>767031</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>301783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="圆角矩形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E45F35E-ED2A-FE4F-8E2B-A51C17848E07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24243170" y="27135250"/>
+          <a:ext cx="3910594" cy="968216"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>领完牌子就直接去宿舍好了。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>515546</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>88022</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>276635</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>188614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="圆角矩形 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38B47E96-A550-B448-9E79-5936A9112C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18773368" y="27487329"/>
+          <a:ext cx="3910594" cy="1031087"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>拿好自己的单据去办理入学手续吧。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>（不会再有审查了。可以松口气了）</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3077,7 +10163,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6945,7 +14031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9222,7 +16308,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11433,10 +18519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB366DD-F190-AC49-8325-CFE96EF0AAF0}">
-  <dimension ref="A3:O42"/>
+  <dimension ref="A3:O129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12149,9 +19235,87 @@
         <v>53</v>
       </c>
     </row>
+    <row r="45" spans="1:15" ht="33">
+      <c r="A45" s="30" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="33">
+      <c r="A46" s="30"/>
+    </row>
+    <row r="47" spans="1:15" ht="33">
+      <c r="A47" s="30"/>
+    </row>
+    <row r="48" spans="1:15" ht="33">
+      <c r="A48" s="30"/>
+    </row>
+    <row r="104" spans="1:14" ht="33">
+      <c r="A104" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="N104" s="30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="28">
+      <c r="B107" s="28" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="26">
+      <c r="C109" s="27" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="26">
+      <c r="C110" s="84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="23" customHeight="1"/>
+    <row r="112" spans="1:14" ht="26">
+      <c r="C112" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" ht="26">
+      <c r="C113" s="84" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" ht="28">
+      <c r="B117" s="28" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" ht="26">
+      <c r="C120" s="27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" ht="28">
+      <c r="B124" s="28" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" ht="26">
+      <c r="C127" s="27" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" ht="26">
+      <c r="C129" s="84" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="45" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="44" max="35" man="1"/>
+  </rowBreaks>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12160,7 +19324,7 @@
   <dimension ref="A3:XFD67"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScale="86" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -29052,8 +36216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
   <dimension ref="B2:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="127" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView topLeftCell="A96" zoomScale="127" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1831" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{3244CEF8-FDD6-3548-B165-43D857227FA8}"/>
+  <xr:revisionPtr revIDLastSave="1832" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EC8E851B-4E25-1D4F-965B-D00F932C72B4}"/>
   <bookViews>
-    <workbookView xWindow="1400" yWindow="460" windowWidth="29000" windowHeight="18200" activeTab="2" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12520" activeTab="2" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -438,7 +438,6 @@
         <sz val="22"/>
         <color rgb="FF002060"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>为技术者自动匹配案件</t>
     </r>
@@ -464,7 +463,6 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>技术者的技术信息登陆</t>
     </r>
@@ -490,7 +488,6 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>案件的技术要求信息登陆</t>
     </r>
@@ -1170,7 +1167,6 @@
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>名称</t>
     </r>
@@ -1185,7 +1181,6 @@
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>場所</t>
     </r>
@@ -1473,7 +1468,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>技术</t>
     </r>
@@ -1499,7 +1493,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>名称</t>
     </r>
@@ -1514,7 +1507,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>場所</t>
     </r>
@@ -1526,7 +1518,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>所在</t>
     </r>
@@ -1549,7 +1540,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>作業</t>
     </r>
@@ -1666,7 +1656,6 @@
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
-        <charset val="134"/>
       </rPr>
       <t>作業</t>
     </r>
@@ -1856,13 +1845,11 @@
       <sz val="22"/>
       <color rgb="FF002060"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1944,7 +1931,6 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1967,7 +1953,6 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
@@ -4127,8 +4112,8 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>163465</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4143,8 +4128,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1168400" y="12814300"/>
-          <a:ext cx="3276600" cy="2044700"/>
+          <a:off x="1172801" y="12688935"/>
+          <a:ext cx="3294204" cy="2224134"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18521,7 +18506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB366DD-F190-AC49-8325-CFE96EF0AAF0}">
   <dimension ref="A3:O129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
@@ -35827,7 +35812,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="32"/>
     </row>
-    <row r="43" spans="1:16384" ht="24">
+    <row r="43" spans="1:16384" ht="23">
       <c r="B43" s="71" t="s">
         <v>132</v>
       </c>
@@ -35867,7 +35852,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="32"/>
     </row>
-    <row r="45" spans="1:16384" ht="24">
+    <row r="45" spans="1:16384" ht="23">
       <c r="B45" s="71" t="s">
         <v>134</v>
       </c>
@@ -35927,7 +35912,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="32"/>
     </row>
-    <row r="48" spans="1:16384" ht="24">
+    <row r="48" spans="1:16384" ht="23">
       <c r="B48" s="71" t="s">
         <v>141</v>
       </c>

--- a/doc/Java中级试做式样书20190305.xlsx
+++ b/doc/Java中级试做式样书20190305.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haoyan/Documents/OneDrive - Office Everyday/我的工作/Java教育中级/JavaMiddleClassCompleteSource/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1832" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{EC8E851B-4E25-1D4F-965B-D00F932C72B4}"/>
+  <xr:revisionPtr revIDLastSave="1942" documentId="8_{01A4E34D-190E-5C4F-A0E5-61FD5DB5F4FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A63A96AB-1726-954D-8ED3-895D7D05F692}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12520" activeTab="2" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
+    <workbookView minimized="1" xWindow="520" yWindow="1060" windowWidth="30380" windowHeight="17760" activeTab="7" xr2:uid="{BE03A144-F736-E04B-84DB-A3DF153F6384}"/>
   </bookViews>
   <sheets>
     <sheet name="前言" sheetId="4" r:id="rId1"/>
@@ -20,11 +20,12 @@
     <sheet name="UI" sheetId="3" r:id="rId5"/>
     <sheet name="参照画面的跳转式样" sheetId="5" r:id="rId6"/>
     <sheet name="整体架构图" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">概要设计!$A$1:$AJ$130</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="308">
   <si>
     <t>目的</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +439,7 @@
         <sz val="22"/>
         <color rgb="FF002060"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>为技术者自动匹配案件</t>
     </r>
@@ -463,6 +465,7 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>技术者的技术信息登陆</t>
     </r>
@@ -488,6 +491,7 @@
         <sz val="22"/>
         <color rgb="FFC00000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>案件的技术要求信息登陆</t>
     </r>
@@ -1167,6 +1171,7 @@
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>名称</t>
     </r>
@@ -1181,6 +1186,7 @@
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>場所</t>
     </r>
@@ -1468,6 +1474,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>技术</t>
     </r>
@@ -1493,6 +1500,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>名称</t>
     </r>
@@ -1507,6 +1515,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>場所</t>
     </r>
@@ -1518,6 +1527,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>所在</t>
     </r>
@@ -1540,6 +1550,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>作業</t>
     </r>
@@ -1656,6 +1667,7 @@
         <sz val="18"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线 (正文)"/>
+        <charset val="134"/>
       </rPr>
       <t>作業</t>
     </r>
@@ -1756,12 +1768,201 @@
     <t>登陆处理流程（案件）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve"> `</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历书出力方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力的时候没有具体分到底，哪个是OS、DB、业务、业种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是出简历的时候会具体分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，大概定一下分类方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建設業 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業務技術項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等存在的话，就是</t>
+  </si>
+  <si>
+    <t xml:space="preserve">財務会計 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等存在的话，就是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的话，就是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注。4，5需要额外的property信息辅助。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个项目有最多的出力数，不够的话需要自动补充空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的入力大于出力，就只输出读到的最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你的入力小于出力，后面需要补充空置，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环读入每个【技术项目信息】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分别给每个分类设置计数器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取这个人的所有【技术项目信息】。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对每个【技术项目信息】做分类判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【问题】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【方案】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【具体】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出力项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个项目最多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果未达到出力数字，需要补充项目（使简历看上去饱满）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回【出力信息Map】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置【出力信息Map】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环取得每个出力项目的计数器。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>OS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技術項目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技術項目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF2A00FF"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>技術項目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>業種技術項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1845,11 +2046,13 @@
       <sz val="22"/>
       <color rgb="FF002060"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="22"/>
       <color rgb="FFC00000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1931,6 +2134,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1953,6 +2157,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线 (正文)"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
@@ -1962,8 +2167,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Menlo"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2003,6 +2252,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2354,7 +2609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2608,6 +2863,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18377,7 +18650,7 @@
   <dimension ref="B5:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18455,8 +18728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC5897A-886F-3C49-A112-5471814CC715}">
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView zoomScale="233" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -18504,10 +18777,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB366DD-F190-AC49-8325-CFE96EF0AAF0}">
-  <dimension ref="A3:O129"/>
+  <dimension ref="A3:AI129"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScale="101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A89" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -19233,6 +19506,11 @@
     </row>
     <row r="48" spans="1:15" ht="33">
       <c r="A48" s="30"/>
+    </row>
+    <row r="95" spans="35:35">
+      <c r="AI95" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="104" spans="1:14" ht="33">
       <c r="A104" s="30" t="s">
@@ -19308,8 +19586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FCBE3B-F85F-DE40-982F-3CACB8FEB57B}">
   <dimension ref="A3:XFD67"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView topLeftCell="A38" zoomScale="70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -35812,7 +36090,7 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="32"/>
     </row>
-    <row r="43" spans="1:16384" ht="23">
+    <row r="43" spans="1:16384" ht="24">
       <c r="B43" s="71" t="s">
         <v>132</v>
       </c>
@@ -35852,7 +36130,7 @@
       <c r="P44" s="5"/>
       <c r="Q44" s="32"/>
     </row>
-    <row r="45" spans="1:16384" ht="23">
+    <row r="45" spans="1:16384" ht="24">
       <c r="B45" s="71" t="s">
         <v>134</v>
       </c>
@@ -35912,7 +36190,7 @@
       <c r="P47" s="5"/>
       <c r="Q47" s="32"/>
     </row>
-    <row r="48" spans="1:16384" ht="23">
+    <row r="48" spans="1:16384" ht="24">
       <c r="B48" s="71" t="s">
         <v>141</v>
       </c>
@@ -36201,8 +36479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE2A3216-6AF0-E14B-A512-294148E509F1}">
   <dimension ref="B2:V186"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" zoomScale="127" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView topLeftCell="A154" zoomScale="92" workbookViewId="0">
+      <selection activeCell="I184" sqref="I184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39421,7 +39699,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="J120" sqref="J120"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -39436,7 +39714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE87D0A0-A6C2-F945-B5D0-A9EFA56956D2}">
   <dimension ref="B5:O96"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
@@ -39604,4 +39884,238 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7345243B-0B0E-1B40-8E34-B8CA4179B00B}">
+  <dimension ref="B3:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="259" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="C11" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="87" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="C12" s="22">
+        <v>1</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="89" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="C13" s="22">
+        <v>2</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="89" t="s">
+        <v>305</v>
+      </c>
+      <c r="H13" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="C14" s="22">
+        <v>3</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="89" t="s">
+        <v>306</v>
+      </c>
+      <c r="H14" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="C15" s="22">
+        <v>4</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="90" t="s">
+        <v>307</v>
+      </c>
+      <c r="H15" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="C16" s="22">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="90" t="s">
+        <v>280</v>
+      </c>
+      <c r="H16" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="G17" s="85"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" s="86" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" s="86" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="C21" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="D26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="D27" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="D28" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="C32" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="D33" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>